--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_131.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_131.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32911-d1158582-Reviews-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>86</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Comfort-Inn-Near-FairPlex.h2202664.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_131.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_131.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,919 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r536297280-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>32911</t>
+  </si>
+  <si>
+    <t>1158582</t>
+  </si>
+  <si>
+    <t>536297280</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>A little off the freeway but nice hotel</t>
+  </si>
+  <si>
+    <t>Had a nice friendly check in where I was told of all offerings, she was new to job and did a good job. It was a nice clean and quiet hotel with a Starbucks nearby making it all that much better. Beds were comfy and room was nicely decorated.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r533609276-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>533609276</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Staff!</t>
+  </si>
+  <si>
+    <t>We checked in for one night prior to a college visit for my son. When I told the young man at the front desk that we were going to Cal Poly in the morning, he said he was a student there and typed directions for me. Getting there in the morning was a breeze! Thank you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r525018664-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>525018664</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the price it was really good. Hotel is good room for two people. Bathroom really neat and well maintained. Always greeted by employees, got to get checked in earlier then expected. Breakfast had many options, very delicious. Stayed for two nights very good experience. Overall experience well worth the money. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r506133365-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>506133365</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Yikes!</t>
+  </si>
+  <si>
+    <t>This hotel is in a part of town that is a little sketchy. As the hotel points out in response to another review, there is a family center and several schools in the area.  However, there are also a number of vacant lots and run down establishments nearby. There was a friendly homeless guy camped right out in front of the hotel the night that we checked in!  To make matters worse, the deadbolt on our door did not work, and the door had to be forced into position to get the basic latch lock to work.  The bummer about all of this is that this hotel has potential and the staff is very nice. With a little investment in security upgrades, this place will do well in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>This hotel is in a part of town that is a little sketchy. As the hotel points out in response to another review, there is a family center and several schools in the area.  However, there are also a number of vacant lots and run down establishments nearby. There was a friendly homeless guy camped right out in front of the hotel the night that we checked in!  To make matters worse, the deadbolt on our door did not work, and the door had to be forced into position to get the basic latch lock to work.  The bummer about all of this is that this hotel has potential and the staff is very nice. With a little investment in security upgrades, this place will do well in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r504627147-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>504627147</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Great stay!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed for a week during my step-daughter's dance convention. It was wonderful. The hotel was nice and clean. The breakfast was better than I expected. The staff was always friendly. The night clerk, Angel, was outstanding. Always helpful and full of great recommendations, he went above and beyond to make sure our visit was pleasant. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r494600098-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>494600098</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Love this place!</t>
+  </si>
+  <si>
+    <t>This hotel is like home. The staff is super friendly. You get breakfast included, which is always a plus. They also have a gym! And a free use of a computer and printer! Parking is very clean and quiet. Laundry room is small but clean. We will defitnetly be coming back to this location only! Very nice and quiet! The best location of comfort inns that I have been to before for sure!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r481852040-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>481852040</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Hotel was good service good some billing issues</t>
+  </si>
+  <si>
+    <t>Hotel is fine.  Security good. Only one way in.  Room was good no issues.  Staff friendly and helpful.  I was only there for a few hours as had to catch early flight so no meals or anything.  Cabby and others told me. It the best part of town to stay and I should have stayed at the airport.  Booked online.   Before I went.  Pending charge on my visa when booking said no charge til I got there.  Stayed on night.  Got charged again for the night.  Took over a week to release the pending charge which has never happened before when I have travelled.  Hotel said it was my bank.   Bank said I don't think so!  Watch your credit card.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Hotel is fine.  Security good. Only one way in.  Room was good no issues.  Staff friendly and helpful.  I was only there for a few hours as had to catch early flight so no meals or anything.  Cabby and others told me. It the best part of town to stay and I should have stayed at the airport.  Booked online.   Before I went.  Pending charge on my visa when booking said no charge til I got there.  Stayed on night.  Got charged again for the night.  Took over a week to release the pending charge which has never happened before when I have travelled.  Hotel said it was my bank.   Bank said I don't think so!  Watch your credit card.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r480038408-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>480038408</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, friendly, &amp; quiet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My son and I stayed in a second floor room which faced the parking lot (opposite side if the main road). Our room was clean and quiet at night, even though it was a Friday night stay. The hotel staff were friendly and the free breakfast was good. The only concern regarding this hotel is it's location. The surrounding neighborhood is not awful, but I wouldn't want to walk it at night. I very much appreciated the fact that they have a security guard actively patrolling the parking lot from 9:00 pm to 6:00 am. Overall, a great value hotel! </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r476149872-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>476149872</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Nice Comfort Inn.  Location is interesting</t>
+  </si>
+  <si>
+    <t>We needed something for 1 night and my husband found this place.  It sounded great and the lobby was part of an old winery and it was really pretty.  He Prepaid through Hotels.com and when we arrived they couldn't find our reservation.  So after a phone call or 2 we got that worked out.  The front desk person seemed a little surprised we wanted 1 bed which I thought was odd.  So we made our way to the room.  There was an interesting smell in the 3rd floor lobby but our room smelled very clean and nice.  The room was nicely appointed and had everything we needed.  We had read later after booking the hotel there had been issues with car break-ins but we had no problem. The bed was a little too firm for my taste but it was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Jenny J, General Manager at Comfort Inn Near FairPlex, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>We needed something for 1 night and my husband found this place.  It sounded great and the lobby was part of an old winery and it was really pretty.  He Prepaid through Hotels.com and when we arrived they couldn't find our reservation.  So after a phone call or 2 we got that worked out.  The front desk person seemed a little surprised we wanted 1 bed which I thought was odd.  So we made our way to the room.  There was an interesting smell in the 3rd floor lobby but our room smelled very clean and nice.  The room was nicely appointed and had everything we needed.  We had read later after booking the hotel there had been issues with car break-ins but we had no problem. The bed was a little too firm for my taste but it was ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r461445716-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>461445716</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Fine two nights</t>
+  </si>
+  <si>
+    <t>Visiting colleges in Claremont but it was parents' weekend so all the local hotels were booked and this place seemed fine via Trip Advisor.  All in all, exactly what you'd expect and the price was fair.  Rooms were clean, breakfast was serviceable and the bathroom was spacious.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Visiting colleges in Claremont but it was parents' weekend so all the local hotels were booked and this place seemed fine via Trip Advisor.  All in all, exactly what you'd expect and the price was fair.  Rooms were clean, breakfast was serviceable and the bathroom was spacious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r456472001-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>456472001</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay for car show</t>
+  </si>
+  <si>
+    <t>This is our hotel we stay at when we have the car shows to attend.  It is off the main area which we like.  They have breakfast but it's the staff that make this hotel.  They are always helpful with suggestions or problems when things come up.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>This is our hotel we stay at when we have the car shows to attend.  It is off the main area which we like.  They have breakfast but it's the staff that make this hotel.  They are always helpful with suggestions or problems when things come up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r455636894-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>455636894</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Not a safe place</t>
+  </si>
+  <si>
+    <t>Our vehicle was broken into in the parking lot overnight. The front desk would not help us view the video, and seemed as if it was a normal occurrance. I would never stay here again. The area is not good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our vehicle was broken into in the parking lot overnight. The front desk would not help us view the video, and seemed as if it was a normal occurrance. I would never stay here again. The area is not good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r435390344-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>435390344</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Good room, good value</t>
+  </si>
+  <si>
+    <t>We needed to be in the Pomona area for a family visit and this Comfort Inn lived up to the usual reputation. We enjoyed our spacious room (Room 300 is square rather than rectangular) and the bed was great!  We enjoyed having 2 freeways to choose from and spent two evenings in the downtown area up the road which offers some funky restaurant &amp; bar choices.Our only complaint would be that the included breakfast was not quite as good as we've had at other Comfort Inns and the breakfast area (both serving and eating areas) was not cleaned up during the meal service.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r430956987-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>430956987</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Stay here if you can</t>
+  </si>
+  <si>
+    <t>We stayed here during our vacation out west in June and July  The price was reasonable and the room was clean.  Every day we went to LA to visit sites.  It was worth the 2 plus hour drive to stay there.  All the staff was great and the breakfast was wonderful each day we were there.  (7 days in all) .  If you can get room 101 do so since it was so large.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r427410983-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>427410983</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Convient location</t>
+  </si>
+  <si>
+    <t>This hotel is a few miles from the Pomona Fairplex. Check in was easy , the staff was very friendly and printed us up a map of the area which was mich appreciated. The rooms were clean and the bathroom was large. The shampoo/ conditioners were very small, pretty much one use. The hotel was right on the road, but the noise was minimal. There is an elevator in the hotel, so you don't have to carry your bags up and down stairs. The pillows were a bit lumpy. Overall we were pretty happy with this facility.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r412251862-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>412251862</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Getting worse every stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I won't be staying here again. The breakfast was mediocre. The eggs were cold. The hallway to our room smelled like mildew. The room itself...yuck. The shower head was corroded so it didn't spray properly. The street noise was insane. It sounded like a Harley convention/race all night until after 4 am. The air conditioning smelled so horrible I was tempted to open the window but the street noise prevented it. The only plus was the front desk clerks. They are friendly. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r399790276-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>399790276</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Our experience was not at all consistent with the recent good reviews. On arrival (more than an hour after their posted check-in time) we had to wait 20 minutes before our rooms were ready, although the hotel seemed almost deserted. The front desk staff were pleasant enough, but given that it was nearly 100 degrees that day, waiting around with our suitcases made for an unpleasant start to our stay. The rooms themselves were badly run-down -- stains on the walls and curtains, torn upholstery, scratched-up furniture... worst of all, one of our two rooms had a nasty odor. (My husband and I disagreed on whether it was urine or mold...) The housekeeping staff seem to have done their best, but these rooms need way more than vacuuming and dusting. Conditions in the main corridor were even worse -- damaged walls and filthy carpeting.Breakfast was average. The tiny "fitness center" consists of a treadmill, a very basic recumbent bike, and a third-rate weight machine.We tried to talk with hotel staff about the problems we observed. When we checked out, there was no one at the front desk. When we emailed the address on our checkout receipt, the email bounced.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Our experience was not at all consistent with the recent good reviews. On arrival (more than an hour after their posted check-in time) we had to wait 20 minutes before our rooms were ready, although the hotel seemed almost deserted. The front desk staff were pleasant enough, but given that it was nearly 100 degrees that day, waiting around with our suitcases made for an unpleasant start to our stay. The rooms themselves were badly run-down -- stains on the walls and curtains, torn upholstery, scratched-up furniture... worst of all, one of our two rooms had a nasty odor. (My husband and I disagreed on whether it was urine or mold...) The housekeeping staff seem to have done their best, but these rooms need way more than vacuuming and dusting. Conditions in the main corridor were even worse -- damaged walls and filthy carpeting.Breakfast was average. The tiny "fitness center" consists of a treadmill, a very basic recumbent bike, and a third-rate weight machine.We tried to talk with hotel staff about the problems we observed. When we checked out, there was no one at the front desk. When we emailed the address on our checkout receipt, the email bounced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r399017767-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>399017767</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>Very nice for a place with history. Parking lot was well it. Had a god rest. Breakfast was the usual stuff. Some places have trays so you can take a little something for someone who doesn't like to go down. This place had no trays. Not a big deal.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r385599350-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>385599350</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Clean Hotel</t>
+  </si>
+  <si>
+    <t>Despite the not so inviting surrounding, the hotel's cleanliness made up for it ! was only there for an overnight stay.  The front desk was friendly.  Parking was not a problem. Bathroom was clean but it being upgraded, the toilet seat was old, with some paint removed.  Other than that, everything else looked new, clean and functional.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r383515126-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>383515126</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Very Good Comfort Inn</t>
+  </si>
+  <si>
+    <t>Stayed here visiting friends at the nearby University of La Verne. Rooms were well kept and the overall facility was well maintained. Breakfast had a very good variety. This facility is in the top quartile of Comfort Inns and competitors. Only two concerns: although the elevator car was clean, dirt had accumulated in all four corners; and although the facility is safe and secure, it is out of the way and in a marginal area of Pomona.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r383173297-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>383173297</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>A Very Good Hotel for the Price</t>
+  </si>
+  <si>
+    <t>The title of the review says it all.  Great and friendly service, very clean facilities, and comfortable rooms are topped off by this looking a bit nicer than your average 2 star hotel.  Definitely a solid place to stay if you are in the area!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r366162800-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>366162800</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Excellent place to stay in Pomona</t>
+  </si>
+  <si>
+    <t>I was in town for a show at the Glass House and had a wonderful stay at this very nice and inexpensive hotel. The room was perfect and had a very comfortable bed. I would recommend it to anyone staying in the area.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r364031620-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>364031620</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Great experience overall</t>
+  </si>
+  <si>
+    <t>I spent 3 nights in this hotel and found it to be well kept, quiet and very clean. Valerie at the front desk was extremely helpful and polite. I had one noise issue with someone slamming their door repeatedly and one call to the front desk dealt with the problem. The neighborhood surrounding the hotel is not posh or full of swanky restaurants, but neither is any other hotel in Pomona. I will say that I found 3 excellent Mexican restaurants within 5 minutes of this location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r361475918-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>361475918</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Was rated excellent. Do not feel that it is what you would consider excellent or good. It is average at the most.  Also, no restaurants in the area around it. We found a sports bar close to the Fairplex and bought food to go and ate it in our room. The best that we could do was the CVS Pharmacy for snacks.  Makes me reconsider booking on line.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r350071619-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>350071619</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Convenient, clean and courteous</t>
+  </si>
+  <si>
+    <t>Stayed here one night while attending events at the Fairplex.  Short drive to event, though you can't make a left out of the hotel parking lot.Room, lobby and breakfast areas were clean and well kept.  Wi-fi was good. CVS next door was convenient.Interesting architecture in lobby, former winery.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r333786097-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>333786097</t>
+  </si>
+  <si>
+    <t>12/18/2015</t>
+  </si>
+  <si>
+    <t>Definitely would stay again</t>
+  </si>
+  <si>
+    <t>My biggest concerns about staying at this hotel were planted in my mind by other reviewers on here about the neighborhood.  Words like sketchy, rough, seedy, and shabby made me hesitate to make the reservation.  
+I drove around and walked around alone after dark to find food and did so without any issues.  I had no trouble conducting business in the area and didn’t encounter any harassment or intimidation from the locals.  Folks either smiled at me or didn’t pay attention to me.  On my scale those add up to lean more toward the pleasant end than the sketchy end.   
+A CVS Pharmacy is right next door and there are plenty of Mom &amp; Pop restaurants within walking distance if you like burritos, tacos, or hamburgers.  I even saw a couple of donut shops that I wish I had tried.  There aren’t any chain restaurants immediately nearby, though.  Perhaps the lack of a Chili’s or Red Lobster makes a neighborhood rough for some travelers but I found it to be a non-issue.  
+The hotel itself was great.  The parking lot was clean and the landscaping manicured.  The lobby was clean and inviting.  The bed was clean and comfortable.  The bathroom was clean and large enough to move around in.  Seeing a ‘clean’ pattern here?  I did too.  No funky smells or stains anywhere.  No hairs that weren’t mine.  The hotel is advertised as being in a historical building but inside...My biggest concerns about staying at this hotel were planted in my mind by other reviewers on here about the neighborhood.  Words like sketchy, rough, seedy, and shabby made me hesitate to make the reservation.  I drove around and walked around alone after dark to find food and did so without any issues.  I had no trouble conducting business in the area and didn’t encounter any harassment or intimidation from the locals.  Folks either smiled at me or didn’t pay attention to me.  On my scale those add up to lean more toward the pleasant end than the sketchy end.   A CVS Pharmacy is right next door and there are plenty of Mom &amp; Pop restaurants within walking distance if you like burritos, tacos, or hamburgers.  I even saw a couple of donut shops that I wish I had tried.  There aren’t any chain restaurants immediately nearby, though.  Perhaps the lack of a Chili’s or Red Lobster makes a neighborhood rough for some travelers but I found it to be a non-issue.  The hotel itself was great.  The parking lot was clean and the landscaping manicured.  The lobby was clean and inviting.  The bed was clean and comfortable.  The bathroom was clean and large enough to move around in.  Seeing a ‘clean’ pattern here?  I did too.  No funky smells or stains anywhere.  No hairs that weren’t mine.  The hotel is advertised as being in a historical building but inside shows no trace of being old.  It’s just a nice Comfort Inn.The down side?  Breakfast was nothing to write home about.  Maybe you could try the donut shops I never made it to and let me know how they are.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>My biggest concerns about staying at this hotel were planted in my mind by other reviewers on here about the neighborhood.  Words like sketchy, rough, seedy, and shabby made me hesitate to make the reservation.  
+I drove around and walked around alone after dark to find food and did so without any issues.  I had no trouble conducting business in the area and didn’t encounter any harassment or intimidation from the locals.  Folks either smiled at me or didn’t pay attention to me.  On my scale those add up to lean more toward the pleasant end than the sketchy end.   
+A CVS Pharmacy is right next door and there are plenty of Mom &amp; Pop restaurants within walking distance if you like burritos, tacos, or hamburgers.  I even saw a couple of donut shops that I wish I had tried.  There aren’t any chain restaurants immediately nearby, though.  Perhaps the lack of a Chili’s or Red Lobster makes a neighborhood rough for some travelers but I found it to be a non-issue.  
+The hotel itself was great.  The parking lot was clean and the landscaping manicured.  The lobby was clean and inviting.  The bed was clean and comfortable.  The bathroom was clean and large enough to move around in.  Seeing a ‘clean’ pattern here?  I did too.  No funky smells or stains anywhere.  No hairs that weren’t mine.  The hotel is advertised as being in a historical building but inside...My biggest concerns about staying at this hotel were planted in my mind by other reviewers on here about the neighborhood.  Words like sketchy, rough, seedy, and shabby made me hesitate to make the reservation.  I drove around and walked around alone after dark to find food and did so without any issues.  I had no trouble conducting business in the area and didn’t encounter any harassment or intimidation from the locals.  Folks either smiled at me or didn’t pay attention to me.  On my scale those add up to lean more toward the pleasant end than the sketchy end.   A CVS Pharmacy is right next door and there are plenty of Mom &amp; Pop restaurants within walking distance if you like burritos, tacos, or hamburgers.  I even saw a couple of donut shops that I wish I had tried.  There aren’t any chain restaurants immediately nearby, though.  Perhaps the lack of a Chili’s or Red Lobster makes a neighborhood rough for some travelers but I found it to be a non-issue.  The hotel itself was great.  The parking lot was clean and the landscaping manicured.  The lobby was clean and inviting.  The bed was clean and comfortable.  The bathroom was clean and large enough to move around in.  Seeing a ‘clean’ pattern here?  I did too.  No funky smells or stains anywhere.  No hairs that weren’t mine.  The hotel is advertised as being in a historical building but inside shows no trace of being old.  It’s just a nice Comfort Inn.The down side?  Breakfast was nothing to write home about.  Maybe you could try the donut shops I never made it to and let me know how they are.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r333668585-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>333668585</t>
+  </si>
+  <si>
+    <t>My favorite place to stay when in Pomona</t>
+  </si>
+  <si>
+    <t>Yeah, the location in South Pomona isn't all that great BUTIt's clean, comfortable, quiet, with friendly and professional service. The free breakfast is spot on. And, the price is right. New carpets in the rooms and hallways really helped the overall appearance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r325284607-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>325284607</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>Lovely and Friendly</t>
+  </si>
+  <si>
+    <t>My husband  and I ride a Harley, We pulled into The Comfort Inn and we were caught in a tremendous rain storm.. We were treated very kindly. Jessica was learning the front desk and  both Ladies were very sweet.. They gave us places we could call in for delivery..  We depended on them as they knew what was best.... We would stay there again...</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r324628910-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>324628910</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Rough area</t>
+  </si>
+  <si>
+    <t>Hotel is situated in a "rough" area of Pomona. We stayed here to attend the October, Pomona swap meet, it's ideally situated and very close to Fairplex. We went to some local bars and found it a little intimidating. Being British we walked the 10 minutes to the local bars and discovered some interesting sights along the way. People sleeping rough at the side of the road etc. We found the staff in the hotel overall very friendly and they were very helpful. We didn't have any breakfast at the hotel during our stay, preferred to eat a nice freshly cooked one elsewhere. We did take some fruit in the morning from the breakfast area, fruit was a bit "stale". You get what you pay for I suppose and it did serve a purpose, rooms were OK and that's about it. Would I stay here again? Yes I would if going on a budget, it is a budget hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Hotel is situated in a "rough" area of Pomona. We stayed here to attend the October, Pomona swap meet, it's ideally situated and very close to Fairplex. We went to some local bars and found it a little intimidating. Being British we walked the 10 minutes to the local bars and discovered some interesting sights along the way. People sleeping rough at the side of the road etc. We found the staff in the hotel overall very friendly and they were very helpful. We didn't have any breakfast at the hotel during our stay, preferred to eat a nice freshly cooked one elsewhere. We did take some fruit in the morning from the breakfast area, fruit was a bit "stale". You get what you pay for I suppose and it did serve a purpose, rooms were OK and that's about it. Would I stay here again? Yes I would if going on a budget, it is a budget hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r309686519-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>309686519</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Surprising Little Gem</t>
+  </si>
+  <si>
+    <t>We live in OC and attended the Pomona Fairplex for a concert.  We knew we didn't want to drive home at midnight, so we booked a room in advance.  This Comfort Inn was a pleasant surprise!  The surrounding neighborhood is a bit sketchy, but once you get to the building, you forget that.  The building itself is historic and picturesque.  It looks like it belongs in Santa Barbara or somewhere along the beach.  The staff was friendly and helpful, and the lobby smelled of fresh lemon cleaning products.  The lobby looked like it belonged to an expensive hotel.  The hotel room was spacious and clean.  The bed was comfortable, and I loved that there were so many pillows.  The shower section included shampoo AND conditioner! Score.  That doesn't always happen at places we stay at.  We slept in and didn't eat the included breakfast, but the area looked nice and clean. Overall, we will now make this a tradition to stay here every September when we see a concert at the near by fairplex.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We live in OC and attended the Pomona Fairplex for a concert.  We knew we didn't want to drive home at midnight, so we booked a room in advance.  This Comfort Inn was a pleasant surprise!  The surrounding neighborhood is a bit sketchy, but once you get to the building, you forget that.  The building itself is historic and picturesque.  It looks like it belongs in Santa Barbara or somewhere along the beach.  The staff was friendly and helpful, and the lobby smelled of fresh lemon cleaning products.  The lobby looked like it belonged to an expensive hotel.  The hotel room was spacious and clean.  The bed was comfortable, and I loved that there were so many pillows.  The shower section included shampoo AND conditioner! Score.  That doesn't always happen at places we stay at.  We slept in and didn't eat the included breakfast, but the area looked nice and clean. Overall, we will now make this a tradition to stay here every September when we see a concert at the near by fairplex.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r281709920-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>281709920</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel at a nice price!</t>
+  </si>
+  <si>
+    <t>I stayed here at the Comfort Inn for two nights in June.  When driving to the hotel, I wasn't sure that I had made the best choice, because the neighborhood didn't seem to be all that good.  But I was pleasantly surprised at the quality of the hotel and the room.  The room was very nice, clean and spacious.  I liked the fact that it had a small refrigerator in the room.  All of the furnishings were in great shape.  They provided a breakfast in the morning, but I never had the chance to give it a try.  There was no pool…didn't matter to me, but that might be important to some families with children.  I like how close it was to a major highway, which made it easy for me to head in different directions.  I was visiting Pasadena and Chino Hills, and this was ideally located for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I stayed here at the Comfort Inn for two nights in June.  When driving to the hotel, I wasn't sure that I had made the best choice, because the neighborhood didn't seem to be all that good.  But I was pleasantly surprised at the quality of the hotel and the room.  The room was very nice, clean and spacious.  I liked the fact that it had a small refrigerator in the room.  All of the furnishings were in great shape.  They provided a breakfast in the morning, but I never had the chance to give it a try.  There was no pool…didn't matter to me, but that might be important to some families with children.  I like how close it was to a major highway, which made it easy for me to head in different directions.  I was visiting Pasadena and Chino Hills, and this was ideally located for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r279168202-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>279168202</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>No Pool!</t>
+  </si>
+  <si>
+    <t>Hard to believe a hotel in SoCal doesn't have a pool.  My own fault for assuming it did!  Pros:  Nicely decorated, large rooms.  Carpet is thick and clean.  Bathroom large, with granite countertop and tub surround.  Elevator.  Decent, mostly carb breakfast included.  (The cooked eggs were these round patties, which tasted pretty non-eggy.) Polite staff . CVS next door.  Night guard for parking lot.  "Fitness Center" is a small room with a multi-use weight machine, treadmill and recumbent bike,  TV &amp; water cooler, and little towels.  Not great, but it did the job for my son and me. Cons:  SLOW WiFi, but at least it's free.   A/C unit is under the window, so if the curtains are closed, the cold air blows them out, keeping the cold air from getting into the room.  If you have a brick or two in your trunk bring it in to hold the curtains down onto the window sill... Would I stay here again?  Probably, but not in the heat of summer.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hard to believe a hotel in SoCal doesn't have a pool.  My own fault for assuming it did!  Pros:  Nicely decorated, large rooms.  Carpet is thick and clean.  Bathroom large, with granite countertop and tub surround.  Elevator.  Decent, mostly carb breakfast included.  (The cooked eggs were these round patties, which tasted pretty non-eggy.) Polite staff . CVS next door.  Night guard for parking lot.  "Fitness Center" is a small room with a multi-use weight machine, treadmill and recumbent bike,  TV &amp; water cooler, and little towels.  Not great, but it did the job for my son and me. Cons:  SLOW WiFi, but at least it's free.   A/C unit is under the window, so if the curtains are closed, the cold air blows them out, keeping the cold air from getting into the room.  If you have a brick or two in your trunk bring it in to hold the curtains down onto the window sill... Would I stay here again?  Probably, but not in the heat of summer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r268944747-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>268944747</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Neighborhood looked a lil intimidating to an outsider. Ended up being a pleasant stay. Nice rooms and service. CVS  next door. Good for snacks n beverages. Took kids to a concert at the local glass house . Would go again and stay here.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r257079299-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>257079299</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Decent hotel, not great location</t>
+  </si>
+  <si>
+    <t>Located in a mostly residential, not great area, not close to any freeways. Hotel presents well from outside, nicely landscaped and inviting. Decent amount of parking. Front desk staff cheerful and efficient. My room was clean and fairly large, however the carpet looks ancient, and both the carpet and furniture are badly stained and have numerous what appear to be cigarette burns - although, ostensibly, the entire hotel is non-smoking. I did get a very good night's sleep in a comfortable bed with lots of great pillows, the shower was hot, good pressure, high shower-head. This hotel would be a great place to stay if attending an event at the (somewhat) nearby Fairplex; as a business traveler, it's lack of immediate access to freeways and distance from Downtown LA is a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Located in a mostly residential, not great area, not close to any freeways. Hotel presents well from outside, nicely landscaped and inviting. Decent amount of parking. Front desk staff cheerful and efficient. My room was clean and fairly large, however the carpet looks ancient, and both the carpet and furniture are badly stained and have numerous what appear to be cigarette burns - although, ostensibly, the entire hotel is non-smoking. I did get a very good night's sleep in a comfortable bed with lots of great pillows, the shower was hot, good pressure, high shower-head. This hotel would be a great place to stay if attending an event at the (somewhat) nearby Fairplex; as a business traveler, it's lack of immediate access to freeways and distance from Downtown LA is a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r251931892-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>251931892</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Front desk were  extremely helpful and pleasant to work with every day.   We had a large room, two double beds, huge bath and very quiet.  If I ever go back to California I will definitely stay.  It was a former winery.  It was in a nice neighborhood and close to our friends that live close by.  Definitely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r251640910-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>251640910</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Awsome!</t>
+  </si>
+  <si>
+    <t>This is our 10th stay at this hotel over the past 7 years.  We joined Choice Hotels and happened across this hotel.  We come twice a year to the major car shows held at the Fairplex.  The hotel is less than 10 minutes away.  They are in the midst of installing all new carpeting through out the hotel.  Spotless clean bath rooms, tons of towels, fluffy to firm pillows.  The staff whether it be desk, food, house keeping are all so great and helpful.  Might not be four * but you will have a hard time beating this facility.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r238767244-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>238767244</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>In town for the night</t>
+  </si>
+  <si>
+    <t>Was a bit skeptical when booking a hotel in Pomona due to some tough reviews about the city, but upon getting off the freeway an finding the hotel, I was pleasantly surprised.  The hotel had free parking on the side, back and a small garage for about 10 cars or so.   Found parking when we arrived at 9:45pm.   Was able to check in very quickly by a friendly associate.   Our room on the second floor was on the back side of the hotel, so very quiet.  Room looked to have been recently remodeled and very clean and modern.  Bathroom clean.  Beds were comfortable and clean. Had the free breakfast in the morning with choices of coffee, tea, several juices, make your own waffles, sausage and egg patties, assortment of yogurt, cereals, breads.  Would definitely stay again when needing to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Was a bit skeptical when booking a hotel in Pomona due to some tough reviews about the city, but upon getting off the freeway an finding the hotel, I was pleasantly surprised.  The hotel had free parking on the side, back and a small garage for about 10 cars or so.   Found parking when we arrived at 9:45pm.   Was able to check in very quickly by a friendly associate.   Our room on the second floor was on the back side of the hotel, so very quiet.  Room looked to have been recently remodeled and very clean and modern.  Bathroom clean.  Beds were comfortable and clean. Had the free breakfast in the morning with choices of coffee, tea, several juices, make your own waffles, sausage and egg patties, assortment of yogurt, cereals, breads.  Would definitely stay again when needing to stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r230344231-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>230344231</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>Hotel has just been renovated.  Everything is new in the room.  Hotel is very clean.  Hotel staff are very friendly and helpful about everything around the hotel.  Breakfast is ok for the price.  Free. Price is very reasonable for the area.  Hotel is located about 15 minutes away from Fairplex.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r229108070-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>229108070</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Average , Average +</t>
+  </si>
+  <si>
+    <t>No complaints as far as the room goes. Bed was comfortable and bathroom clean with plenty of supplies.  Price was reasonable. We had plenty of space and fairly clean. Food was Ok with a good selection. Neighborhood not great but wasn't there for to long.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r223066808-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>223066808</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Definitely would prefer staying again here. I was on a trip from Bay area to LA and wanted to stay close by to Chino hills area. Pros- Good rooms- Underground parking- Good breakfast- Good beds and restroom- AmbienceCons- No Oven- Ice machine on 2nd floor- AC took timeMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Jenny J, Manager at Comfort Inn Near FairPlex, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Definitely would prefer staying again here. I was on a trip from Bay area to LA and wanted to stay close by to Chino hills area. Pros- Good rooms- Underground parking- Good breakfast- Good beds and restroom- AmbienceCons- No Oven- Ice machine on 2nd floor- AC took timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r216690665-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>216690665</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>We stayed here the other night and I had the best night sleep I have had in a LONG TIME. The beds are so comfortable and the walls are perfectly insulated to where you can't hear your neighbors. According to other reviews it was suggested asking for a room facing the back parking lot to avoid street noise. We did just that and we received the last room on the first floor (#111) right next to the door to the parking garage. Other than hearing the door to the garage shutting a few times during the day, our room was amazingly quiet! Our friends had a room close to the lobby and on the street side but they didn't seem to have any complaints. I was in there for a while and heard a couple trucks pass but other than that it seemed fine. 
+One thing I want to point out is the woman at the front desk who checked us in was incredibly sweet and went above and beyond to help my friends and I get our rooms and get situated. She was so nice and helpful it made our stay so much better. 
+I would have given this hotel 5 stars except our friends' room wasn't available until 5pm (we got there at 3pm) and we found out it was because of a lack of blankets. My friends literally had to wait for the blankets in that room...We stayed here the other night and I had the best night sleep I have had in a LONG TIME. The beds are so comfortable and the walls are perfectly insulated to where you can't hear your neighbors. According to other reviews it was suggested asking for a room facing the back parking lot to avoid street noise. We did just that and we received the last room on the first floor (#111) right next to the door to the parking garage. Other than hearing the door to the garage shutting a few times during the day, our room was amazingly quiet! Our friends had a room close to the lobby and on the street side but they didn't seem to have any complaints. I was in there for a while and heard a couple trucks pass but other than that it seemed fine. One thing I want to point out is the woman at the front desk who checked us in was incredibly sweet and went above and beyond to help my friends and I get our rooms and get situated. She was so nice and helpful it made our stay so much better. I would have given this hotel 5 stars except our friends' room wasn't available until 5pm (we got there at 3pm) and we found out it was because of a lack of blankets. My friends literally had to wait for the blankets in that room to be washed and dried before they could get their room! That is CRAZY. The owner really needs to consider investing in a few more blankets because that is just ridiculous. That said, the wonderful housekeeping staff was always seen working diligently at cleaning every room. They were so pleasant every time we would see them in the hall. They are truly the most pleasant staff here!! We made sure to tip them well. (They deserve it!)The food area was very decent and had everything we needed to grab a bite to eat and start our day. Bonus points to the staff for keeping it clean and stocked with fresh food! There is a CVS right next door (and not "too close" if that makes any sense) for anything you might want to pick up that you forgot to pack. It has a Chase ATM inside too. So nice! For awesome Mexican food close by, we grabbed a bite at Mexico Lindo (1060 S Garey Ave) just down the street and every one of us thought it was delicious! (My favs were the crispy tacos and their salsa - SO GOOD!!)This was my first trip to Pomona and I will definitely be coming back! The town is super cute around 2nd street with lots of antique stores, records stores and amazing food. We will for sure be staying at the Comfort Inn when we come back!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>We stayed here the other night and I had the best night sleep I have had in a LONG TIME. The beds are so comfortable and the walls are perfectly insulated to where you can't hear your neighbors. According to other reviews it was suggested asking for a room facing the back parking lot to avoid street noise. We did just that and we received the last room on the first floor (#111) right next to the door to the parking garage. Other than hearing the door to the garage shutting a few times during the day, our room was amazingly quiet! Our friends had a room close to the lobby and on the street side but they didn't seem to have any complaints. I was in there for a while and heard a couple trucks pass but other than that it seemed fine. 
+One thing I want to point out is the woman at the front desk who checked us in was incredibly sweet and went above and beyond to help my friends and I get our rooms and get situated. She was so nice and helpful it made our stay so much better. 
+I would have given this hotel 5 stars except our friends' room wasn't available until 5pm (we got there at 3pm) and we found out it was because of a lack of blankets. My friends literally had to wait for the blankets in that room...We stayed here the other night and I had the best night sleep I have had in a LONG TIME. The beds are so comfortable and the walls are perfectly insulated to where you can't hear your neighbors. According to other reviews it was suggested asking for a room facing the back parking lot to avoid street noise. We did just that and we received the last room on the first floor (#111) right next to the door to the parking garage. Other than hearing the door to the garage shutting a few times during the day, our room was amazingly quiet! Our friends had a room close to the lobby and on the street side but they didn't seem to have any complaints. I was in there for a while and heard a couple trucks pass but other than that it seemed fine. One thing I want to point out is the woman at the front desk who checked us in was incredibly sweet and went above and beyond to help my friends and I get our rooms and get situated. She was so nice and helpful it made our stay so much better. I would have given this hotel 5 stars except our friends' room wasn't available until 5pm (we got there at 3pm) and we found out it was because of a lack of blankets. My friends literally had to wait for the blankets in that room to be washed and dried before they could get their room! That is CRAZY. The owner really needs to consider investing in a few more blankets because that is just ridiculous. That said, the wonderful housekeeping staff was always seen working diligently at cleaning every room. They were so pleasant every time we would see them in the hall. They are truly the most pleasant staff here!! We made sure to tip them well. (They deserve it!)The food area was very decent and had everything we needed to grab a bite to eat and start our day. Bonus points to the staff for keeping it clean and stocked with fresh food! There is a CVS right next door (and not "too close" if that makes any sense) for anything you might want to pick up that you forgot to pack. It has a Chase ATM inside too. So nice! For awesome Mexican food close by, we grabbed a bite at Mexico Lindo (1060 S Garey Ave) just down the street and every one of us thought it was delicious! (My favs were the crispy tacos and their salsa - SO GOOD!!)This was my first trip to Pomona and I will definitely be coming back! The town is super cute around 2nd street with lots of antique stores, records stores and amazing food. We will for sure be staying at the Comfort Inn when we come back!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r215815517-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>215815517</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>A hidden gem!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was surprised by this hidden gem! Friendly staff! They let me check in early when I called and asked. I was very happy about this. Room was so clean and fresh! Safe location and easy parking. Clean and welcoming lobby. Elevators right there to 3rd floor. Would def stay again! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r205436276-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>205436276</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>spent 3 nights, room was clean, nice and roomy. Hotel overall was quiet, neighborhood could be better but we had no problemsBreakfast was good, staff was pleasant and kept the place cleanWe'd go back if we end up going to another event in the area</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r202713788-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>202713788</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>Appreciate your staff</t>
+  </si>
+  <si>
+    <t>First time staying at a Comfort Inn and I was quite impressed. Room is fairly large if you get the two beds. Wifi connection isn't the greatest, but what do you expect? We were still able to stream music though. Breakfast in the morning was complimentary continental and they made sure none of the food ran out. Employees were very nice and they are people just like us that have to go to our day jobs. Be respectful and they will also be respectful.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r190751225-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>190751225</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>Not what it used to be</t>
+  </si>
+  <si>
+    <t>I have stayed at this Comfort Inn at least a dozen times over the past several years. The quality has been declining recently, and this last visit was likely the final straw for me. The wifi connection in my room was so pathetic I couldn't use the internet in my room at all, there was a weird bright pink stain on the carpet, the large window facing the parking lot (in a ground floor room) was not only unlocked but wide open when I checked in, and the deadbolt lock on the room door took such an effort to turn that at first I thought it was broken. I will be looking into other hotels for my next stay in Pomona.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at this Comfort Inn at least a dozen times over the past several years. The quality has been declining recently, and this last visit was likely the final straw for me. The wifi connection in my room was so pathetic I couldn't use the internet in my room at all, there was a weird bright pink stain on the carpet, the large window facing the parking lot (in a ground floor room) was not only unlocked but wide open when I checked in, and the deadbolt lock on the room door took such an effort to turn that at first I thought it was broken. I will be looking into other hotels for my next stay in Pomona.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r184607714-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>184607714</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Very modern</t>
+  </si>
+  <si>
+    <t>This is one of the nicest Comfort Inns I have seen. The rooms and hotel itself were beautiful, updated, and modern. The breakfast area was very small, but the breakfast was good. The cleanliness of the rooms was great and staff was very friendly. Right next to a CVS so that was helpful in picking up essentials. Would stay here again anytime!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r184122184-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>184122184</t>
+  </si>
+  <si>
+    <t>11/08/2013</t>
+  </si>
+  <si>
+    <t>Bugs and Smoke Detectors</t>
+  </si>
+  <si>
+    <t>We checked in at 11 p.m. due to our flights, ready to sleep, but we get to the room to discover bugs in the bathtub and around the toilet.  Went down to complain and received another room.  We personally moved all of our stuff and get to the other room to discover that the battery in the smoke detector is not working and beeping every two minutes.  Go to reception again... wait 10 minutes... get a new room  next to the room that is beeping.. don't complain anymore cause it is 1 p.m. and we need to sleep.  Assured by the staff that we will be compensated.... guess what... 1 week later and still nothing......do not ever stay here.... terrible....MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>We checked in at 11 p.m. due to our flights, ready to sleep, but we get to the room to discover bugs in the bathtub and around the toilet.  Went down to complain and received another room.  We personally moved all of our stuff and get to the other room to discover that the battery in the smoke detector is not working and beeping every two minutes.  Go to reception again... wait 10 minutes... get a new room  next to the room that is beeping.. don't complain anymore cause it is 1 p.m. and we need to sleep.  Assured by the staff that we will be compensated.... guess what... 1 week later and still nothing......do not ever stay here.... terrible....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r183217688-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>183217688</t>
+  </si>
+  <si>
+    <t>11/01/2013</t>
+  </si>
+  <si>
+    <t>Great stay for one night..</t>
+  </si>
+  <si>
+    <t>Only stayed for a night, but it was definitely one of the nicest Comfort Inns I have stayed at, maybe because it was brand new, and it was very spacious, the front desk guy was very helpful and nice, and they had a laundry room as well. Can't see when I will be in Pomona again, but if I am I would definitely stay again! :)</t>
+  </si>
+  <si>
+    <t>December 2012</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1561,2970 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>104</v>
+      </c>
+      <c r="X12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>104</v>
+      </c>
+      <c r="X13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>138</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>177</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" t="s">
+        <v>177</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>229</v>
+      </c>
+      <c r="O31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" t="s">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s">
+        <v>235</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>236</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" t="s">
+        <v>253</v>
+      </c>
+      <c r="L35" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>255</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s">
+        <v>267</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>262</v>
+      </c>
+      <c r="O37" t="s">
+        <v>103</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>269</v>
+      </c>
+      <c r="J38" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
+        <v>272</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>273</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K39" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39" t="s">
+        <v>279</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>282</v>
+      </c>
+      <c r="J40" t="s">
+        <v>283</v>
+      </c>
+      <c r="K40" t="s">
+        <v>284</v>
+      </c>
+      <c r="L40" t="s">
+        <v>285</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>286</v>
+      </c>
+      <c r="O40" t="s">
+        <v>103</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>288</v>
+      </c>
+      <c r="J41" t="s">
+        <v>289</v>
+      </c>
+      <c r="K41" t="s">
+        <v>290</v>
+      </c>
+      <c r="L41" t="s">
+        <v>291</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>292</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>293</v>
+      </c>
+      <c r="X41" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" t="s">
+        <v>299</v>
+      </c>
+      <c r="L42" t="s">
+        <v>300</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>301</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>304</v>
+      </c>
+      <c r="J43" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" t="s">
+        <v>306</v>
+      </c>
+      <c r="L43" t="s">
+        <v>307</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J44" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44" t="s">
+        <v>311</v>
+      </c>
+      <c r="L44" t="s">
+        <v>312</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>313</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s">
+        <v>318</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>319</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" t="s">
+        <v>322</v>
+      </c>
+      <c r="K46" t="s">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s">
+        <v>324</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>325</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K47" t="s">
+        <v>330</v>
+      </c>
+      <c r="L47" t="s">
+        <v>331</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>313</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>333</v>
+      </c>
+      <c r="J48" t="s">
+        <v>334</v>
+      </c>
+      <c r="K48" t="s">
+        <v>335</v>
+      </c>
+      <c r="L48" t="s">
+        <v>336</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>337</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>340</v>
+      </c>
+      <c r="J49" t="s">
+        <v>341</v>
+      </c>
+      <c r="K49" t="s">
+        <v>342</v>
+      </c>
+      <c r="L49" t="s">
+        <v>343</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>344</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_131.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_131.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>SIOUXFANFOREVER</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>JenJenW724</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r533609276-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>vanessasac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r525018664-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Jen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r506133365-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>This hotel is in a part of town that is a little sketchy. As the hotel points out in response to another review, there is a family center and several schools in the area.  However, there are also a number of vacant lots and run down establishments nearby. There was a friendly homeless guy camped right out in front of the hotel the night that we checked in!  To make matters worse, the deadbolt on our door did not work, and the door had to be forced into position to get the basic latch lock to work.  The bummer about all of this is that this hotel has potential and the staff is very nice. With a little investment in security upgrades, this place will do well in the future. More</t>
   </si>
   <si>
+    <t>Ken321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r504627147-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t xml:space="preserve">We stayed for a week during my step-daughter's dance convention. It was wonderful. The hotel was nice and clean. The breakfast was better than I expected. The staff was always friendly. The night clerk, Angel, was outstanding. Always helpful and full of great recommendations, he went above and beyond to make sure our visit was pleasant. </t>
   </si>
   <si>
+    <t>kimberly m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r494600098-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>612dougc2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r481852040-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>Hotel is fine.  Security good. Only one way in.  Room was good no issues.  Staff friendly and helpful.  I was only there for a few hours as had to catch early flight so no meals or anything.  Cabby and others told me. It the best part of town to stay and I should have stayed at the airport.  Booked online.   Before I went.  Pending charge on my visa when booking said no charge til I got there.  Stayed on night.  Got charged again for the night.  Took over a week to release the pending charge which has never happened before when I have travelled.  Hotel said it was my bank.   Bank said I don't think so!  Watch your credit card.  More</t>
   </si>
   <si>
+    <t>mkeeg72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r480038408-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Dale T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r476149872-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>We needed something for 1 night and my husband found this place.  It sounded great and the lobby was part of an old winery and it was really pretty.  He Prepaid through Hotels.com and when we arrived they couldn't find our reservation.  So after a phone call or 2 we got that worked out.  The front desk person seemed a little surprised we wanted 1 bed which I thought was odd.  So we made our way to the room.  There was an interesting smell in the 3rd floor lobby but our room smelled very clean and nice.  The room was nicely appointed and had everything we needed.  We had read later after booking the hotel there had been issues with car break-ins but we had no problem. The bed was a little too firm for my taste but it was ok.More</t>
   </si>
   <si>
+    <t>Laura B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r461445716-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>Visiting colleges in Claremont but it was parents' weekend so all the local hotels were booked and this place seemed fine via Trip Advisor.  All in all, exactly what you'd expect and the price was fair.  Rooms were clean, breakfast was serviceable and the bathroom was spacious.More</t>
   </si>
   <si>
+    <t>We4palls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r456472001-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>This is our hotel we stay at when we have the car shows to attend.  It is off the main area which we like.  They have breakfast but it's the staff that make this hotel.  They are always helpful with suggestions or problems when things come up.More</t>
   </si>
   <si>
+    <t>BJKilleen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r455636894-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>Our vehicle was broken into in the parking lot overnight. The front desk would not help us view the video, and seemed as if it was a normal occurrance. I would never stay here again. The area is not good.More</t>
   </si>
   <si>
+    <t>Nancy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r435390344-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Thomas B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r430956987-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -435,6 +477,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>envy28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r427410983-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -450,6 +495,9 @@
     <t>This hotel is a few miles from the Pomona Fairplex. Check in was easy , the staff was very friendly and printed us up a map of the area which was mich appreciated. The rooms were clean and the bathroom was large. The shampoo/ conditioners were very small, pretty much one use. The hotel was right on the road, but the noise was minimal. There is an elevator in the hotel, so you don't have to carry your bags up and down stairs. The pillows were a bit lumpy. Overall we were pretty happy with this facility.</t>
   </si>
   <si>
+    <t>Loretta L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r412251862-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -468,6 +516,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>ellrat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r399790276-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -489,6 +540,9 @@
     <t>Our experience was not at all consistent with the recent good reviews. On arrival (more than an hour after their posted check-in time) we had to wait 20 minutes before our rooms were ready, although the hotel seemed almost deserted. The front desk staff were pleasant enough, but given that it was nearly 100 degrees that day, waiting around with our suitcases made for an unpleasant start to our stay. The rooms themselves were badly run-down -- stains on the walls and curtains, torn upholstery, scratched-up furniture... worst of all, one of our two rooms had a nasty odor. (My husband and I disagreed on whether it was urine or mold...) The housekeeping staff seem to have done their best, but these rooms need way more than vacuuming and dusting. Conditions in the main corridor were even worse -- damaged walls and filthy carpeting.Breakfast was average. The tiny "fitness center" consists of a treadmill, a very basic recumbent bike, and a third-rate weight machine.We tried to talk with hotel staff about the problems we observed. When we checked out, there was no one at the front desk. When we emailed the address on our checkout receipt, the email bounced.More</t>
   </si>
   <si>
+    <t>radmarc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r399017767-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -504,6 +558,9 @@
     <t>Very nice for a place with history. Parking lot was well it. Had a god rest. Breakfast was the usual stuff. Some places have trays so you can take a little something for someone who doesn't like to go down. This place had no trays. Not a big deal.</t>
   </si>
   <si>
+    <t>lyks2travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r385599350-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -519,6 +576,9 @@
     <t>Despite the not so inviting surrounding, the hotel's cleanliness made up for it ! was only there for an overnight stay.  The front desk was friendly.  Parking was not a problem. Bathroom was clean but it being upgraded, the toilet seat was old, with some paint removed.  Other than that, everything else looked new, clean and functional.</t>
   </si>
   <si>
+    <t>VABicycle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r383515126-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -534,6 +594,9 @@
     <t>Stayed here visiting friends at the nearby University of La Verne. Rooms were well kept and the overall facility was well maintained. Breakfast had a very good variety. This facility is in the top quartile of Comfort Inns and competitors. Only two concerns: although the elevator car was clean, dirt had accumulated in all four corners; and although the facility is safe and secure, it is out of the way and in a marginal area of Pomona.</t>
   </si>
   <si>
+    <t>XXXXXVXXXXX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r383173297-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -552,6 +615,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>George N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r366162800-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -570,6 +636,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>David O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r364031620-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -585,6 +654,9 @@
     <t>I spent 3 nights in this hotel and found it to be well kept, quiet and very clean. Valerie at the front desk was extremely helpful and polite. I had one noise issue with someone slamming their door repeatedly and one call to the front desk dealt with the problem. The neighborhood surrounding the hotel is not posh or full of swanky restaurants, but neither is any other hotel in Pomona. I will say that I found 3 excellent Mexican restaurants within 5 minutes of this location.</t>
   </si>
   <si>
+    <t>Cheryl G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r361475918-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -600,6 +672,9 @@
     <t>Was rated excellent. Do not feel that it is what you would consider excellent or good. It is average at the most.  Also, no restaurants in the area around it. We found a sports bar close to the Fairplex and bought food to go and ate it in our room. The best that we could do was the CVS Pharmacy for snacks.  Makes me reconsider booking on line.</t>
   </si>
   <si>
+    <t>Bonnie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r350071619-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -616,6 +691,9 @@
   </si>
   <si>
     <t>February 2016</t>
+  </si>
+  <si>
+    <t>ArcFlashMan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r333786097-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -645,6 +723,9 @@
 The hotel itself was great.  The parking lot was clean and the landscaping manicured.  The lobby was clean and inviting.  The bed was clean and comfortable.  The bathroom was clean and large enough to move around in.  Seeing a ‘clean’ pattern here?  I did too.  No funky smells or stains anywhere.  No hairs that weren’t mine.  The hotel is advertised as being in a historical building but inside...My biggest concerns about staying at this hotel were planted in my mind by other reviewers on here about the neighborhood.  Words like sketchy, rough, seedy, and shabby made me hesitate to make the reservation.  I drove around and walked around alone after dark to find food and did so without any issues.  I had no trouble conducting business in the area and didn’t encounter any harassment or intimidation from the locals.  Folks either smiled at me or didn’t pay attention to me.  On my scale those add up to lean more toward the pleasant end than the sketchy end.   A CVS Pharmacy is right next door and there are plenty of Mom &amp; Pop restaurants within walking distance if you like burritos, tacos, or hamburgers.  I even saw a couple of donut shops that I wish I had tried.  There aren’t any chain restaurants immediately nearby, though.  Perhaps the lack of a Chili’s or Red Lobster makes a neighborhood rough for some travelers but I found it to be a non-issue.  The hotel itself was great.  The parking lot was clean and the landscaping manicured.  The lobby was clean and inviting.  The bed was clean and comfortable.  The bathroom was clean and large enough to move around in.  Seeing a ‘clean’ pattern here?  I did too.  No funky smells or stains anywhere.  No hairs that weren’t mine.  The hotel is advertised as being in a historical building but inside shows no trace of being old.  It’s just a nice Comfort Inn.The down side?  Breakfast was nothing to write home about.  Maybe you could try the donut shops I never made it to and let me know how they are.More</t>
   </si>
   <si>
+    <t>Kip C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r333668585-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -657,6 +738,9 @@
     <t>Yeah, the location in South Pomona isn't all that great BUTIt's clean, comfortable, quiet, with friendly and professional service. The free breakfast is spot on. And, the price is right. New carpets in the rooms and hallways really helped the overall appearance.</t>
   </si>
   <si>
+    <t>Madelyn L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r325284607-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -675,6 +759,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Anthony W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r324628910-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -696,6 +783,9 @@
     <t>Hotel is situated in a "rough" area of Pomona. We stayed here to attend the October, Pomona swap meet, it's ideally situated and very close to Fairplex. We went to some local bars and found it a little intimidating. Being British we walked the 10 minutes to the local bars and discovered some interesting sights along the way. People sleeping rough at the side of the road etc. We found the staff in the hotel overall very friendly and they were very helpful. We didn't have any breakfast at the hotel during our stay, preferred to eat a nice freshly cooked one elsewhere. We did take some fruit in the morning from the breakfast area, fruit was a bit "stale". You get what you pay for I suppose and it did serve a purpose, rooms were OK and that's about it. Would I stay here again? Yes I would if going on a budget, it is a budget hotel.More</t>
   </si>
   <si>
+    <t>Vanessa G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r309686519-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -717,6 +807,9 @@
     <t>We live in OC and attended the Pomona Fairplex for a concert.  We knew we didn't want to drive home at midnight, so we booked a room in advance.  This Comfort Inn was a pleasant surprise!  The surrounding neighborhood is a bit sketchy, but once you get to the building, you forget that.  The building itself is historic and picturesque.  It looks like it belongs in Santa Barbara or somewhere along the beach.  The staff was friendly and helpful, and the lobby smelled of fresh lemon cleaning products.  The lobby looked like it belonged to an expensive hotel.  The hotel room was spacious and clean.  The bed was comfortable, and I loved that there were so many pillows.  The shower section included shampoo AND conditioner! Score.  That doesn't always happen at places we stay at.  We slept in and didn't eat the included breakfast, but the area looked nice and clean. Overall, we will now make this a tradition to stay here every September when we see a concert at the near by fairplex.More</t>
   </si>
   <si>
+    <t>tkfleming74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r281709920-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -738,6 +831,9 @@
     <t>I stayed here at the Comfort Inn for two nights in June.  When driving to the hotel, I wasn't sure that I had made the best choice, because the neighborhood didn't seem to be all that good.  But I was pleasantly surprised at the quality of the hotel and the room.  The room was very nice, clean and spacious.  I liked the fact that it had a small refrigerator in the room.  All of the furnishings were in great shape.  They provided a breakfast in the morning, but I never had the chance to give it a try.  There was no pool…didn't matter to me, but that might be important to some families with children.  I like how close it was to a major highway, which made it easy for me to head in different directions.  I was visiting Pasadena and Chino Hills, and this was ideally located for me.More</t>
   </si>
   <si>
+    <t>cheapoyromantico</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r279168202-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -756,6 +852,9 @@
     <t>Hard to believe a hotel in SoCal doesn't have a pool.  My own fault for assuming it did!  Pros:  Nicely decorated, large rooms.  Carpet is thick and clean.  Bathroom large, with granite countertop and tub surround.  Elevator.  Decent, mostly carb breakfast included.  (The cooked eggs were these round patties, which tasted pretty non-eggy.) Polite staff . CVS next door.  Night guard for parking lot.  "Fitness Center" is a small room with a multi-use weight machine, treadmill and recumbent bike,  TV &amp; water cooler, and little towels.  Not great, but it did the job for my son and me. Cons:  SLOW WiFi, but at least it's free.   A/C unit is under the window, so if the curtains are closed, the cold air blows them out, keeping the cold air from getting into the room.  If you have a brick or two in your trunk bring it in to hold the curtains down onto the window sill... Would I stay here again?  Probably, but not in the heat of summer.More</t>
   </si>
   <si>
+    <t>tanya d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r268944747-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -774,6 +873,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>William J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r257079299-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -795,6 +897,9 @@
     <t>Located in a mostly residential, not great area, not close to any freeways. Hotel presents well from outside, nicely landscaped and inviting. Decent amount of parking. Front desk staff cheerful and efficient. My room was clean and fairly large, however the carpet looks ancient, and both the carpet and furniture are badly stained and have numerous what appear to be cigarette burns - although, ostensibly, the entire hotel is non-smoking. I did get a very good night's sleep in a comfortable bed with lots of great pillows, the shower was hot, good pressure, high shower-head. This hotel would be a great place to stay if attending an event at the (somewhat) nearby Fairplex; as a business traveler, it's lack of immediate access to freeways and distance from Downtown LA is a problem.More</t>
   </si>
   <si>
+    <t>maryybarra68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r251931892-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -813,6 +918,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>bennett942</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r251640910-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -828,6 +936,9 @@
     <t>This is our 10th stay at this hotel over the past 7 years.  We joined Choice Hotels and happened across this hotel.  We come twice a year to the major car shows held at the Fairplex.  The hotel is less than 10 minutes away.  They are in the midst of installing all new carpeting through out the hotel.  Spotless clean bath rooms, tons of towels, fluffy to firm pillows.  The staff whether it be desk, food, house keeping are all so great and helpful.  Might not be four * but you will have a hard time beating this facility.</t>
   </si>
   <si>
+    <t>luvhb4evr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r238767244-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -849,6 +960,9 @@
     <t>Was a bit skeptical when booking a hotel in Pomona due to some tough reviews about the city, but upon getting off the freeway an finding the hotel, I was pleasantly surprised.  The hotel had free parking on the side, back and a small garage for about 10 cars or so.   Found parking when we arrived at 9:45pm.   Was able to check in very quickly by a friendly associate.   Our room on the second floor was on the back side of the hotel, so very quiet.  Room looked to have been recently remodeled and very clean and modern.  Bathroom clean.  Beds were comfortable and clean. Had the free breakfast in the morning with choices of coffee, tea, several juices, make your own waffles, sausage and egg patties, assortment of yogurt, cereals, breads.  Would definitely stay again when needing to stay in the area.More</t>
   </si>
   <si>
+    <t>rpgamble7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r230344231-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -867,6 +981,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>1onMyList</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r229108070-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -885,6 +1002,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>sekharbvp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r223066808-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -910,6 +1030,9 @@
   </si>
   <si>
     <t>Definitely would prefer staying again here. I was on a trip from Bay area to LA and wanted to stay close by to Chino hills area. Pros- Good rooms- Underground parking- Good breakfast- Good beds and restroom- AmbienceCons- No Oven- Ice machine on 2nd floor- AC took timeMore</t>
+  </si>
+  <si>
+    <t>JulieJutland</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r216690665-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -937,6 +1060,9 @@
 I would have given this hotel 5 stars except our friends' room wasn't available until 5pm (we got there at 3pm) and we found out it was because of a lack of blankets. My friends literally had to wait for the blankets in that room...We stayed here the other night and I had the best night sleep I have had in a LONG TIME. The beds are so comfortable and the walls are perfectly insulated to where you can't hear your neighbors. According to other reviews it was suggested asking for a room facing the back parking lot to avoid street noise. We did just that and we received the last room on the first floor (#111) right next to the door to the parking garage. Other than hearing the door to the garage shutting a few times during the day, our room was amazingly quiet! Our friends had a room close to the lobby and on the street side but they didn't seem to have any complaints. I was in there for a while and heard a couple trucks pass but other than that it seemed fine. One thing I want to point out is the woman at the front desk who checked us in was incredibly sweet and went above and beyond to help my friends and I get our rooms and get situated. She was so nice and helpful it made our stay so much better. I would have given this hotel 5 stars except our friends' room wasn't available until 5pm (we got there at 3pm) and we found out it was because of a lack of blankets. My friends literally had to wait for the blankets in that room to be washed and dried before they could get their room! That is CRAZY. The owner really needs to consider investing in a few more blankets because that is just ridiculous. That said, the wonderful housekeeping staff was always seen working diligently at cleaning every room. They were so pleasant every time we would see them in the hall. They are truly the most pleasant staff here!! We made sure to tip them well. (They deserve it!)The food area was very decent and had everything we needed to grab a bite to eat and start our day. Bonus points to the staff for keeping it clean and stocked with fresh food! There is a CVS right next door (and not "too close" if that makes any sense) for anything you might want to pick up that you forgot to pack. It has a Chase ATM inside too. So nice! For awesome Mexican food close by, we grabbed a bite at Mexico Lindo (1060 S Garey Ave) just down the street and every one of us thought it was delicious! (My favs were the crispy tacos and their salsa - SO GOOD!!)This was my first trip to Pomona and I will definitely be coming back! The town is super cute around 2nd street with lots of antique stores, records stores and amazing food. We will for sure be staying at the Comfort Inn when we come back!!More</t>
   </si>
   <si>
+    <t>Sharbear227</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r215815517-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -952,6 +1078,9 @@
     <t xml:space="preserve">I was surprised by this hidden gem! Friendly staff! They let me check in early when I called and asked. I was very happy about this. Room was so clean and fresh! Safe location and easy parking. Clean and welcoming lobby. Elevators right there to 3rd floor. Would def stay again! </t>
   </si>
   <si>
+    <t>Donna A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r205436276-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -970,6 +1099,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>bambatbambat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r202713788-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -988,6 +1120,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Liz S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r190751225-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -1009,6 +1144,9 @@
     <t>I have stayed at this Comfort Inn at least a dozen times over the past several years. The quality has been declining recently, and this last visit was likely the final straw for me. The wifi connection in my room was so pathetic I couldn't use the internet in my room at all, there was a weird bright pink stain on the carpet, the large window facing the parking lot (in a ground floor room) was not only unlocked but wide open when I checked in, and the deadbolt lock on the room door took such an effort to turn that at first I thought it was broken. I will be looking into other hotels for my next stay in Pomona.More</t>
   </si>
   <si>
+    <t>Nicole M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r184607714-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -1024,6 +1162,9 @@
     <t>This is one of the nicest Comfort Inns I have seen. The rooms and hotel itself were beautiful, updated, and modern. The breakfast area was very small, but the breakfast was good. The cleanliness of the rooms was great and staff was very friendly. Right next to a CVS so that was helpful in picking up essentials. Would stay here again anytime!</t>
   </si>
   <si>
+    <t>Cheryl C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r184122184-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -1043,6 +1184,9 @@
   </si>
   <si>
     <t>We checked in at 11 p.m. due to our flights, ready to sleep, but we get to the room to discover bugs in the bathtub and around the toilet.  Went down to complain and received another room.  We personally moved all of our stuff and get to the other room to discover that the battery in the smoke detector is not working and beeping every two minutes.  Go to reception again... wait 10 minutes... get a new room  next to the room that is beeping.. don't complain anymore cause it is 1 p.m. and we need to sleep.  Assured by the staff that we will be compensated.... guess what... 1 week later and still nothing......do not ever stay here.... terrible....More</t>
+  </si>
+  <si>
+    <t>HusnaO</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r183217688-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -1565,43 +1709,47 @@
       <c r="A2" t="n">
         <v>57208</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>64143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1621,50 +1769,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57208</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>131310</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1678,50 +1830,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57208</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>131311</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1735,50 +1891,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57208</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>92464</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1792,50 +1952,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57208</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>131312</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1849,50 +2013,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57208</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>131313</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1906,50 +2074,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57208</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>131314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1963,50 +2135,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57208</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>131315</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2020,50 +2196,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57208</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>63456</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2081,56 +2261,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57208</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>9665</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2148,56 +2332,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="X11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57208</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>131316</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2209,56 +2397,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="X12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57208</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>131317</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2270,56 +2462,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="X13" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57208</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>18307</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2339,50 +2535,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57208</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2253</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2402,50 +2602,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57208</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>131318</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2463,50 +2667,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57208</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>131319</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2520,50 +2728,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57208</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>131320</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2583,50 +2795,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57208</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>131321</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2646,50 +2862,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57208</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>131322</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2703,50 +2923,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57208</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>131323</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2766,50 +2990,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57208</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>131324</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2829,50 +3057,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57208</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>44531</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2892,50 +3124,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57208</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>51999</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -2955,50 +3191,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57208</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>14550</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3018,50 +3258,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57208</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>17828</v>
+      </c>
+      <c r="C26" t="s">
+        <v>218</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="O26" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3079,50 +3323,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57208</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>131325</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3140,50 +3388,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57208</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>131326</v>
+      </c>
+      <c r="C28" t="s">
+        <v>233</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3201,50 +3453,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57208</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>131327</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3262,50 +3518,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57208</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>31681</v>
+      </c>
+      <c r="C30" t="s">
+        <v>245</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3323,50 +3583,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57208</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>69027</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="O31" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3386,50 +3650,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57208</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>131328</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3449,50 +3717,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57208</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>131329</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3506,50 +3778,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57208</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>131330</v>
+      </c>
+      <c r="C34" t="s">
+        <v>276</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="J34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3563,50 +3839,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57208</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>466</v>
+      </c>
+      <c r="C35" t="s">
+        <v>283</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="J35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -3626,50 +3906,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57208</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>131331</v>
+      </c>
+      <c r="C36" t="s">
+        <v>291</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="J36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="K36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="O36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3689,50 +3973,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57208</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>131332</v>
+      </c>
+      <c r="C37" t="s">
+        <v>298</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="J37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="O37" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3750,50 +4038,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57208</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>97946</v>
+      </c>
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="J38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -3811,50 +4103,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57208</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>131333</v>
+      </c>
+      <c r="C39" t="s">
+        <v>312</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="J39" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="K39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -3874,50 +4170,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57208</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>131334</v>
+      </c>
+      <c r="C40" t="s">
+        <v>319</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="J40" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="O40" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -3937,50 +4237,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57208</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>131335</v>
+      </c>
+      <c r="C41" t="s">
+        <v>326</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="J41" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -3998,56 +4302,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="X41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="Y41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57208</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>131336</v>
+      </c>
+      <c r="C42" t="s">
+        <v>336</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="J42" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="K42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="L42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4067,41 +4375,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57208</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>131337</v>
+      </c>
+      <c r="C43" t="s">
+        <v>344</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="J43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -4130,50 +4442,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57208</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>28583</v>
+      </c>
+      <c r="C44" t="s">
+        <v>350</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="J44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="K44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="O44" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4197,50 +4513,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57208</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>131338</v>
+      </c>
+      <c r="C45" t="s">
+        <v>357</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="J45" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4264,50 +4584,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57208</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>12263</v>
+      </c>
+      <c r="C46" t="s">
+        <v>364</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="J46" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="K46" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4321,50 +4645,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57208</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>11552</v>
+      </c>
+      <c r="C47" t="s">
+        <v>372</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="J47" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="K47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4388,50 +4716,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57208</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>16821</v>
+      </c>
+      <c r="C48" t="s">
+        <v>378</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="J48" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="K48" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -4455,50 +4787,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57208</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>131339</v>
+      </c>
+      <c r="C49" t="s">
+        <v>386</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="J49" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="K49" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="L49" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -4522,7 +4858,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_131.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_131.xlsx
@@ -1777,7 +1777,7 @@
         <v>57208</v>
       </c>
       <c r="B3" t="n">
-        <v>131310</v>
+        <v>162072</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -1838,7 +1838,7 @@
         <v>57208</v>
       </c>
       <c r="B4" t="n">
-        <v>131311</v>
+        <v>162073</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -1960,7 +1960,7 @@
         <v>57208</v>
       </c>
       <c r="B6" t="n">
-        <v>131312</v>
+        <v>162074</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -2021,7 +2021,7 @@
         <v>57208</v>
       </c>
       <c r="B7" t="n">
-        <v>131313</v>
+        <v>162075</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
@@ -2082,7 +2082,7 @@
         <v>57208</v>
       </c>
       <c r="B8" t="n">
-        <v>131314</v>
+        <v>162076</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -2143,7 +2143,7 @@
         <v>57208</v>
       </c>
       <c r="B9" t="n">
-        <v>131315</v>
+        <v>162077</v>
       </c>
       <c r="C9" t="s">
         <v>99</v>
@@ -2346,7 +2346,7 @@
         <v>57208</v>
       </c>
       <c r="B12" t="n">
-        <v>131316</v>
+        <v>162078</v>
       </c>
       <c r="C12" t="s">
         <v>124</v>
@@ -2411,7 +2411,7 @@
         <v>57208</v>
       </c>
       <c r="B13" t="n">
-        <v>131317</v>
+        <v>162079</v>
       </c>
       <c r="C13" t="s">
         <v>132</v>
@@ -2610,7 +2610,7 @@
         <v>57208</v>
       </c>
       <c r="B16" t="n">
-        <v>131318</v>
+        <v>162080</v>
       </c>
       <c r="C16" t="s">
         <v>153</v>
@@ -2675,7 +2675,7 @@
         <v>57208</v>
       </c>
       <c r="B17" t="n">
-        <v>131319</v>
+        <v>162081</v>
       </c>
       <c r="C17" t="s">
         <v>159</v>
@@ -2736,7 +2736,7 @@
         <v>57208</v>
       </c>
       <c r="B18" t="n">
-        <v>131320</v>
+        <v>162082</v>
       </c>
       <c r="C18" t="s">
         <v>166</v>
@@ -2803,7 +2803,7 @@
         <v>57208</v>
       </c>
       <c r="B19" t="n">
-        <v>131321</v>
+        <v>162083</v>
       </c>
       <c r="C19" t="s">
         <v>174</v>
@@ -2870,7 +2870,7 @@
         <v>57208</v>
       </c>
       <c r="B20" t="n">
-        <v>131322</v>
+        <v>162084</v>
       </c>
       <c r="C20" t="s">
         <v>180</v>
@@ -2931,7 +2931,7 @@
         <v>57208</v>
       </c>
       <c r="B21" t="n">
-        <v>131323</v>
+        <v>162085</v>
       </c>
       <c r="C21" t="s">
         <v>186</v>
@@ -2998,7 +2998,7 @@
         <v>57208</v>
       </c>
       <c r="B22" t="n">
-        <v>131324</v>
+        <v>162086</v>
       </c>
       <c r="C22" t="s">
         <v>192</v>
@@ -3331,7 +3331,7 @@
         <v>57208</v>
       </c>
       <c r="B27" t="n">
-        <v>131325</v>
+        <v>162087</v>
       </c>
       <c r="C27" t="s">
         <v>225</v>
@@ -3396,7 +3396,7 @@
         <v>57208</v>
       </c>
       <c r="B28" t="n">
-        <v>131326</v>
+        <v>162088</v>
       </c>
       <c r="C28" t="s">
         <v>233</v>
@@ -3461,7 +3461,7 @@
         <v>57208</v>
       </c>
       <c r="B29" t="n">
-        <v>131327</v>
+        <v>162089</v>
       </c>
       <c r="C29" t="s">
         <v>238</v>
@@ -3658,7 +3658,7 @@
         <v>57208</v>
       </c>
       <c r="B32" t="n">
-        <v>131328</v>
+        <v>162090</v>
       </c>
       <c r="C32" t="s">
         <v>261</v>
@@ -3725,7 +3725,7 @@
         <v>57208</v>
       </c>
       <c r="B33" t="n">
-        <v>131329</v>
+        <v>162091</v>
       </c>
       <c r="C33" t="s">
         <v>269</v>
@@ -3786,7 +3786,7 @@
         <v>57208</v>
       </c>
       <c r="B34" t="n">
-        <v>131330</v>
+        <v>162092</v>
       </c>
       <c r="C34" t="s">
         <v>276</v>
@@ -3914,7 +3914,7 @@
         <v>57208</v>
       </c>
       <c r="B36" t="n">
-        <v>131331</v>
+        <v>162093</v>
       </c>
       <c r="C36" t="s">
         <v>291</v>
@@ -3981,7 +3981,7 @@
         <v>57208</v>
       </c>
       <c r="B37" t="n">
-        <v>131332</v>
+        <v>162094</v>
       </c>
       <c r="C37" t="s">
         <v>298</v>
@@ -4111,7 +4111,7 @@
         <v>57208</v>
       </c>
       <c r="B39" t="n">
-        <v>131333</v>
+        <v>162095</v>
       </c>
       <c r="C39" t="s">
         <v>312</v>
@@ -4178,7 +4178,7 @@
         <v>57208</v>
       </c>
       <c r="B40" t="n">
-        <v>131334</v>
+        <v>162096</v>
       </c>
       <c r="C40" t="s">
         <v>319</v>
@@ -4245,7 +4245,7 @@
         <v>57208</v>
       </c>
       <c r="B41" t="n">
-        <v>131335</v>
+        <v>162097</v>
       </c>
       <c r="C41" t="s">
         <v>326</v>
@@ -4316,7 +4316,7 @@
         <v>57208</v>
       </c>
       <c r="B42" t="n">
-        <v>131336</v>
+        <v>162098</v>
       </c>
       <c r="C42" t="s">
         <v>336</v>
@@ -4383,7 +4383,7 @@
         <v>57208</v>
       </c>
       <c r="B43" t="n">
-        <v>131337</v>
+        <v>162099</v>
       </c>
       <c r="C43" t="s">
         <v>344</v>
@@ -4521,7 +4521,7 @@
         <v>57208</v>
       </c>
       <c r="B45" t="n">
-        <v>131338</v>
+        <v>162100</v>
       </c>
       <c r="C45" t="s">
         <v>357</v>
@@ -4795,7 +4795,7 @@
         <v>57208</v>
       </c>
       <c r="B49" t="n">
-        <v>131339</v>
+        <v>162101</v>
       </c>
       <c r="C49" t="s">
         <v>386</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_131.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_131.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="571">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,198 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>SIOUXFANFOREVER</t>
-  </si>
-  <si>
-    <t>06/29/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r605821703-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>32911</t>
+  </si>
+  <si>
+    <t>1158582</t>
+  </si>
+  <si>
+    <t>605821703</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Nice, comfortable and a good location.</t>
+  </si>
+  <si>
+    <t>We stayed here during a road trip, and needed a place close to the Fairplex for the car fair.  This fitted the bill perfectly.  The staff were wonderful - helpful, friendly and attentive.  The hotel itself was clean and tidy, and the room spacious enough with good parking and facilities.  The breakfast was the usual fare and good to start the day with.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r601166441-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>601166441</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Nice overnight stay</t>
+  </si>
+  <si>
+    <t>Hotel location is very close to I-10, it is on what seems to be a main street but not heavily traveled (at least while we were there). Some areas of the street the hotel is on are somewhat rundown but the hotel itself didn't seem to be unsafe. Big parking lot but if you have an oversize vehicle and the lot is full, you might have trouble parking. Our room was large and clean. We were on the first floor at the front of the hotel, right next to the street; we didn't hear much noise but did hear sirens a couple times so if this bothers you get a room at the back side of the hotel. The breakfast room was a little small, and the breakfast was adequate (eggs, sausage, waffles, cold cereal, oatmeal, yogurt, fruit). Small workout room (we didn't use it). There were only two things that could have been much better: First thing is, our room key was deactivated the morning of checkout (not even when we checked out, but early in the morning), so early that I left my room at 6:30am to get breakfast and couldn't get back in at 7am! I had to have the front desk reactivate my card. Not really a big deal but a little annoying, suggest they change this to deactivate after checkout at 11am. Second thing, one of our beds was the most uncomfortable hotel bed I've...Hotel location is very close to I-10, it is on what seems to be a main street but not heavily traveled (at least while we were there). Some areas of the street the hotel is on are somewhat rundown but the hotel itself didn't seem to be unsafe. Big parking lot but if you have an oversize vehicle and the lot is full, you might have trouble parking. Our room was large and clean. We were on the first floor at the front of the hotel, right next to the street; we didn't hear much noise but did hear sirens a couple times so if this bothers you get a room at the back side of the hotel. The breakfast room was a little small, and the breakfast was adequate (eggs, sausage, waffles, cold cereal, oatmeal, yogurt, fruit). Small workout room (we didn't use it). There were only two things that could have been much better: First thing is, our room key was deactivated the morning of checkout (not even when we checked out, but early in the morning), so early that I left my room at 6:30am to get breakfast and couldn't get back in at 7am! I had to have the front desk reactivate my card. Not really a big deal but a little annoying, suggest they change this to deactivate after checkout at 11am. Second thing, one of our beds was the most uncomfortable hotel bed I've ever slept in. We had a double queen room, one bed was ok but the other bed had a very noticeable dip in the middle as if someone very large had been sleeping in it for months. When we laid in it, we rolled to the center! That mattress desperately needs to be replaced. Also, the pillows were lumpy and uncomfortable. Other than those things, we enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Hotel location is very close to I-10, it is on what seems to be a main street but not heavily traveled (at least while we were there). Some areas of the street the hotel is on are somewhat rundown but the hotel itself didn't seem to be unsafe. Big parking lot but if you have an oversize vehicle and the lot is full, you might have trouble parking. Our room was large and clean. We were on the first floor at the front of the hotel, right next to the street; we didn't hear much noise but did hear sirens a couple times so if this bothers you get a room at the back side of the hotel. The breakfast room was a little small, and the breakfast was adequate (eggs, sausage, waffles, cold cereal, oatmeal, yogurt, fruit). Small workout room (we didn't use it). There were only two things that could have been much better: First thing is, our room key was deactivated the morning of checkout (not even when we checked out, but early in the morning), so early that I left my room at 6:30am to get breakfast and couldn't get back in at 7am! I had to have the front desk reactivate my card. Not really a big deal but a little annoying, suggest they change this to deactivate after checkout at 11am. Second thing, one of our beds was the most uncomfortable hotel bed I've...Hotel location is very close to I-10, it is on what seems to be a main street but not heavily traveled (at least while we were there). Some areas of the street the hotel is on are somewhat rundown but the hotel itself didn't seem to be unsafe. Big parking lot but if you have an oversize vehicle and the lot is full, you might have trouble parking. Our room was large and clean. We were on the first floor at the front of the hotel, right next to the street; we didn't hear much noise but did hear sirens a couple times so if this bothers you get a room at the back side of the hotel. The breakfast room was a little small, and the breakfast was adequate (eggs, sausage, waffles, cold cereal, oatmeal, yogurt, fruit). Small workout room (we didn't use it). There were only two things that could have been much better: First thing is, our room key was deactivated the morning of checkout (not even when we checked out, but early in the morning), so early that I left my room at 6:30am to get breakfast and couldn't get back in at 7am! I had to have the front desk reactivate my card. Not really a big deal but a little annoying, suggest they change this to deactivate after checkout at 11am. Second thing, one of our beds was the most uncomfortable hotel bed I've ever slept in. We had a double queen room, one bed was ok but the other bed had a very noticeable dip in the middle as if someone very large had been sleeping in it for months. When we laid in it, we rolled to the center! That mattress desperately needs to be replaced. Also, the pillows were lumpy and uncomfortable. Other than those things, we enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r595419266-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>595419266</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Good lodging in Pomona</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable, with a view of the foothills from the window.  The hotel also has a coin-operated washer and dryer, which were a welcome amenity on site.  The staff was courteous and helpful.  This was my third stay, and I've been pleased each time.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r594555236-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>594555236</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Our annual Jan. Trip.</t>
+  </si>
+  <si>
+    <t>Our home away from home when in Pomona! We've been staying at Comfort Inn in Pomona for probably over ten years. We love our room, the staff. We wouldn't stay anywhere else. breakfast is plentiful and fresh. We always try to book well in advance because it fills up pretty quick.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r594421466-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>594421466</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>I always stay at the downtown Comfort Inn every time I attend a Barretts horse auction. The rooms and service are good. They provide a nice breakfast and plenty of parking. On one visit the lady was nice enough to remove a bandage on the middle of back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r594416194-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>594416194</t>
+  </si>
+  <si>
+    <t>Clean and comfy</t>
+  </si>
+  <si>
+    <t>Stayed just one night while traveling. The hallways were a little warm, but the air conditioning in the room worked great. The beds and pillows were comfortable and the bathroom was clean. Customer service was excellent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r592691354-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>592691354</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Beatifully Upkept Treasure</t>
+  </si>
+  <si>
+    <t>We went for our daughters' graduation ceremony.  We discovered this beautifully upkept treasure.  Clean in our room and everywhere else.  Atmosphere was quiet and relaxing; just what you want as a traveler!  Employees were all professionally dressed and so helpful.  The location was perfect for sightseeing.  Extremely convenient parking.  Yummy breakfast and plenty of comfortable seating.  Comfy beds. Everything you could ever want!  Nice prices!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r591957987-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>591957987</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Unique Motel</t>
+  </si>
+  <si>
+    <t>This is a wonderful little motel in a quiet neighborhood not far from the freeway.   Very friendly check-in.  Nice rooms and very clean.  Also have a small indoor parking garage which is rather unique.  The only problem I had was poor reception on my cell phone ( verizon)  in my room.  Kept cutting out.  Worked ok in the lobby which was fine for me.  Probably a dead spot from the cell tower. Will definitely stay here when I return to the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r579981211-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>579981211</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Surprisingly Comfortable</t>
+  </si>
+  <si>
+    <t>I don't stay at Comfort Inns often and when my regular hotel in Claremont was booked I found this one on Trip Advisor.  I was pleasantly surprised. Angel, upon check in, was attentive and pleasant, and even though I checked in close to midnight, he had honored my request for a quiet room on the parking lot side.  He also remembered my name throughout my stay and greeted me by name.  This was unusual service and I was duly impressed.  Room 219 was one of the largest hotel rooms I've had and it was indeed quiet and comfortable.  The odd numbered rooms face the parking lot.  Not a great view but quiet.  The even number rooms are on the street side.  The x19 block are extra large king rooms.  The bed was fine. Not like the higher end chains, but clean and comfortable.  The room was very clean as well.  I had trouble operating the two remotes - one for the TV itself, the other for DirectTV.  I finally got it to work but if you're going to watch TV or cable, ask for instructions.  Breakfast was adequate.  I appreciated the fruit for the waffles.  When choosing rooms, I suggest the third floor corners, on the lot side.  This is an old property, so the walls are thin.  You can hear folks on either side and above you.  Housekeeping started vacuuming early and woke me up, as did the folks...I don't stay at Comfort Inns often and when my regular hotel in Claremont was booked I found this one on Trip Advisor.  I was pleasantly surprised. Angel, upon check in, was attentive and pleasant, and even though I checked in close to midnight, he had honored my request for a quiet room on the parking lot side.  He also remembered my name throughout my stay and greeted me by name.  This was unusual service and I was duly impressed.  Room 219 was one of the largest hotel rooms I've had and it was indeed quiet and comfortable.  The odd numbered rooms face the parking lot.  Not a great view but quiet.  The even number rooms are on the street side.  The x19 block are extra large king rooms.  The bed was fine. Not like the higher end chains, but clean and comfortable.  The room was very clean as well.  I had trouble operating the two remotes - one for the TV itself, the other for DirectTV.  I finally got it to work but if you're going to watch TV or cable, ask for instructions.  Breakfast was adequate.  I appreciated the fruit for the waffles.  When choosing rooms, I suggest the third floor corners, on the lot side.  This is an old property, so the walls are thin.  You can hear folks on either side and above you.  Housekeeping started vacuuming early and woke me up, as did the folks above me.  So top floor, odd number rooms, and a corner room like 219 or 319.MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't stay at Comfort Inns often and when my regular hotel in Claremont was booked I found this one on Trip Advisor.  I was pleasantly surprised. Angel, upon check in, was attentive and pleasant, and even though I checked in close to midnight, he had honored my request for a quiet room on the parking lot side.  He also remembered my name throughout my stay and greeted me by name.  This was unusual service and I was duly impressed.  Room 219 was one of the largest hotel rooms I've had and it was indeed quiet and comfortable.  The odd numbered rooms face the parking lot.  Not a great view but quiet.  The even number rooms are on the street side.  The x19 block are extra large king rooms.  The bed was fine. Not like the higher end chains, but clean and comfortable.  The room was very clean as well.  I had trouble operating the two remotes - one for the TV itself, the other for DirectTV.  I finally got it to work but if you're going to watch TV or cable, ask for instructions.  Breakfast was adequate.  I appreciated the fruit for the waffles.  When choosing rooms, I suggest the third floor corners, on the lot side.  This is an old property, so the walls are thin.  You can hear folks on either side and above you.  Housekeeping started vacuuming early and woke me up, as did the folks...I don't stay at Comfort Inns often and when my regular hotel in Claremont was booked I found this one on Trip Advisor.  I was pleasantly surprised. Angel, upon check in, was attentive and pleasant, and even though I checked in close to midnight, he had honored my request for a quiet room on the parking lot side.  He also remembered my name throughout my stay and greeted me by name.  This was unusual service and I was duly impressed.  Room 219 was one of the largest hotel rooms I've had and it was indeed quiet and comfortable.  The odd numbered rooms face the parking lot.  Not a great view but quiet.  The even number rooms are on the street side.  The x19 block are extra large king rooms.  The bed was fine. Not like the higher end chains, but clean and comfortable.  The room was very clean as well.  I had trouble operating the two remotes - one for the TV itself, the other for DirectTV.  I finally got it to work but if you're going to watch TV or cable, ask for instructions.  Breakfast was adequate.  I appreciated the fruit for the waffles.  When choosing rooms, I suggest the third floor corners, on the lot side.  This is an old property, so the walls are thin.  You can hear folks on either side and above you.  Housekeeping started vacuuming early and woke me up, as did the folks above me.  So top floor, odd number rooms, and a corner room like 219 or 319.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r561353794-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>561353794</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Good Enough Hotel</t>
+  </si>
+  <si>
+    <t>We have stayed here twice, both times in January because we go to annual meeting in Ontario but have things to do in Pomona.  This is a very good, in between spot.  I know some people regard this as a dodgy neighborhood, but we never got bad vibes here.  Plus a lot of great Asian and other food is pretty close in Diamond Bar (plus a Costco gasoline station if you belong).  Breakfast is okay.  Best to avoid if there actually is a big show at Fairplex.We'll probably stay here next January, too.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r536297280-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
-    <t>32911</t>
-  </si>
-  <si>
-    <t>1158582</t>
-  </si>
-  <si>
     <t>536297280</t>
   </si>
   <si>
@@ -180,12 +357,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>JenJenW724</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r533609276-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -201,12 +372,6 @@
     <t>We checked in for one night prior to a college visit for my son. When I told the young man at the front desk that we were going to Cal Poly in the morning, he said he was a student there and typed directions for me. Getting there in the morning was a breeze! Thank you!</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>vanessasac</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r525018664-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -225,10 +390,37 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Jen A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r520370169-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>520370169</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Basic decent hotel in the area</t>
+  </si>
+  <si>
+    <t>Check in in the evening was slow. I had requested a high floor room but we were placed in a ground floor room. We had a short one night stay just to sleep. Large enough room. Basic breakfast. Free parking. Got what we expected, where what we expected was the basics.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r512929638-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>512929638</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Great stay great staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolina B. Has taken care of me most of thee times I have stayed at this property and has been awesome and so very helpful every time. Even with the location its very quite and peaceful and I have never got a bad room or had a bad stay here. The whole staff is a bonus on top of the clean rooms and comfy accommodations. I will be returning there again later this week and I am sure will be staying again if I am in the area. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r506133365-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -252,9 +444,6 @@
     <t>This hotel is in a part of town that is a little sketchy. As the hotel points out in response to another review, there is a family center and several schools in the area.  However, there are also a number of vacant lots and run down establishments nearby. There was a friendly homeless guy camped right out in front of the hotel the night that we checked in!  To make matters worse, the deadbolt on our door did not work, and the door had to be forced into position to get the basic latch lock to work.  The bummer about all of this is that this hotel has potential and the staff is very nice. With a little investment in security upgrades, this place will do well in the future. More</t>
   </si>
   <si>
-    <t>Ken321</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r504627147-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -270,9 +459,6 @@
     <t xml:space="preserve">We stayed for a week during my step-daughter's dance convention. It was wonderful. The hotel was nice and clean. The breakfast was better than I expected. The staff was always friendly. The night clerk, Angel, was outstanding. Always helpful and full of great recommendations, he went above and beyond to make sure our visit was pleasant. </t>
   </si>
   <si>
-    <t>kimberly m</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r494600098-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -291,7 +477,37 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>612dougc2016</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r486725189-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>486725189</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Recommend this if you're traveling on a budget, or if you're not</t>
+  </si>
+  <si>
+    <t>This was my first experience at a Comfort Inn hotel as I usually stay at the Marriott, Westin, Hyatt, etc. It was a very nice hotel and I would stay there again. I recommend this to anyone no matter what the budget of your trip is.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r486648267-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>486648267</t>
+  </si>
+  <si>
+    <t>Great place to stay for graduation at Claremont Colleges - a few minutes away, but still quite close!</t>
+  </si>
+  <si>
+    <t>We have stayed here before (our daughter was studying at Harvey Mudd College) and I was very pleasantly surprised by the room improvements since the last time we stayed.  The furniture/bathroom/bedding looked refreshed, and we had a great stay.The staff were also very helpful, and even called me when a pair of pants were left in our room - thank you!  We were very pleased with our stay and truly appreciated the variety of foods at breakfast.  Keep up the good work, Comfort Inn Pomona!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r481852040-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -309,15 +525,9 @@
     <t>Hotel is fine.  Security good. Only one way in.  Room was good no issues.  Staff friendly and helpful.  I was only there for a few hours as had to catch early flight so no meals or anything.  Cabby and others told me. It the best part of town to stay and I should have stayed at the airport.  Booked online.   Before I went.  Pending charge on my visa when booking said no charge til I got there.  Stayed on night.  Got charged again for the night.  Took over a week to release the pending charge which has never happened before when I have travelled.  Hotel said it was my bank.   Bank said I don't think so!  Watch your credit card.  MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>Hotel is fine.  Security good. Only one way in.  Room was good no issues.  Staff friendly and helpful.  I was only there for a few hours as had to catch early flight so no meals or anything.  Cabby and others told me. It the best part of town to stay and I should have stayed at the airport.  Booked online.   Before I went.  Pending charge on my visa when booking said no charge til I got there.  Stayed on night.  Got charged again for the night.  Took over a week to release the pending charge which has never happened before when I have travelled.  Hotel said it was my bank.   Bank said I don't think so!  Watch your credit card.  More</t>
   </si>
   <si>
-    <t>mkeeg72</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r480038408-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -336,9 +546,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>Dale T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r476149872-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -354,9 +561,6 @@
     <t>We needed something for 1 night and my husband found this place.  It sounded great and the lobby was part of an old winery and it was really pretty.  He Prepaid through Hotels.com and when we arrived they couldn't find our reservation.  So after a phone call or 2 we got that worked out.  The front desk person seemed a little surprised we wanted 1 bed which I thought was odd.  So we made our way to the room.  There was an interesting smell in the 3rd floor lobby but our room smelled very clean and nice.  The room was nicely appointed and had everything we needed.  We had read later after booking the hotel there had been issues with car break-ins but we had no problem. The bed was a little too firm for my taste but it was ok.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Jenny J, General Manager at Comfort Inn Near FairPlex, responded to this reviewResponded April 18, 2017</t>
   </si>
   <si>
@@ -366,7 +570,43 @@
     <t>We needed something for 1 night and my husband found this place.  It sounded great and the lobby was part of an old winery and it was really pretty.  He Prepaid through Hotels.com and when we arrived they couldn't find our reservation.  So after a phone call or 2 we got that worked out.  The front desk person seemed a little surprised we wanted 1 bed which I thought was odd.  So we made our way to the room.  There was an interesting smell in the 3rd floor lobby but our room smelled very clean and nice.  The room was nicely appointed and had everything we needed.  We had read later after booking the hotel there had been issues with car break-ins but we had no problem. The bed was a little too firm for my taste but it was ok.More</t>
   </si>
   <si>
-    <t>Laura B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r475543593-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>475543593</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Typical comfort inn, not good for celiacs</t>
+  </si>
+  <si>
+    <t>We stayed here on a visit to the Claremont colleges. Clean room, comfortable beds. When I booked I added a note that we are a celiac family and asked about gluten free options for breakfast. In the morning, the manager went out to buy us gluten free bread for breakfast but couldn't find any. The gesture was nice, but left us with no breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here on a visit to the Claremont colleges. Clean room, comfortable beds. When I booked I added a note that we are a celiac family and asked about gluten free options for breakfast. In the morning, the manager went out to buy us gluten free bread for breakfast but couldn't find any. The gesture was nice, but left us with no breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r463003390-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>463003390</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Good for an Interview Stay at WUHS</t>
+  </si>
+  <si>
+    <t>The hotel is a convenient place to stay for anyone who has a medical school interview at Western University. Apart from myself, four other interviewees also stayed at this hotel before interview day. Check-in was smooth and the staff were friendly. Although the neighbourhood was questionable and slightly rundown, the hotel is located on a main road which quells any fears about exploring the vicinity by foot. Food options are limited in the surrounding area but right next door is a CVS. I bought a frozen dinner and borrowed the microwave in the hotel's breakfast area. The elevator was old and slow. The lock in the room I stayed in was faulty as it took many attempts before the lock would budge. I lost my sense of time in the room since there was no alarm clock. Other than these issues, I had a comfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>The hotel is a convenient place to stay for anyone who has a medical school interview at Western University. Apart from myself, four other interviewees also stayed at this hotel before interview day. Check-in was smooth and the staff were friendly. Although the neighbourhood was questionable and slightly rundown, the hotel is located on a main road which quells any fears about exploring the vicinity by foot. Food options are limited in the surrounding area but right next door is a CVS. I bought a frozen dinner and borrowed the microwave in the hotel's breakfast area. The elevator was old and slow. The lock in the room I stayed in was faulty as it took many attempts before the lock would budge. I lost my sense of time in the room since there was no alarm clock. Other than these issues, I had a comfortable stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r461445716-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -384,15 +624,9 @@
     <t>Visiting colleges in Claremont but it was parents' weekend so all the local hotels were booked and this place seemed fine via Trip Advisor.  All in all, exactly what you'd expect and the price was fair.  Rooms were clean, breakfast was serviceable and the bathroom was spacious.MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>Visiting colleges in Claremont but it was parents' weekend so all the local hotels were booked and this place seemed fine via Trip Advisor.  All in all, exactly what you'd expect and the price was fair.  Rooms were clean, breakfast was serviceable and the bathroom was spacious.More</t>
   </si>
   <si>
-    <t>We4palls</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r456472001-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -414,9 +648,6 @@
     <t>This is our hotel we stay at when we have the car shows to attend.  It is off the main area which we like.  They have breakfast but it's the staff that make this hotel.  They are always helpful with suggestions or problems when things come up.More</t>
   </si>
   <si>
-    <t>BJKilleen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r455636894-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -435,7 +666,43 @@
     <t>Our vehicle was broken into in the parking lot overnight. The front desk would not help us view the video, and seemed as if it was a normal occurrance. I would never stay here again. The area is not good.More</t>
   </si>
   <si>
-    <t>Nancy H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r450154168-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>450154168</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Nice Hotel in a iffy area but it's convenient, clean, nice breakfast.I especially liked the young lady that checked me in, friendly, helpful and she gave me a great recommendation for dinner. It's nice to be greeted by someone who really likes their job, made  my stay more pleasant!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice Hotel in a iffy area but it's convenient, clean, nice breakfast.I especially liked the young lady that checked me in, friendly, helpful and she gave me a great recommendation for dinner. It's nice to be greeted by someone who really likes their job, made  my stay more pleasant!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r437069863-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>437069863</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Easy to get to drag races</t>
+  </si>
+  <si>
+    <t>The hotel, on the most part was pretty clean. After checking in, we wanted to go checkout the room. We could hardly get past all the laundry and maid carts that were in the hallway at 5:15pm. Found the room very clean but this room needs some work. After bringing dinner back to the room, I sat at the small table. It was so wobbly, I thought it would collapse. Big spot on the rug. When turning on the air conditioner, it blew the curtains up in the air. Where is the privacy?? When taking a shower, the faucet handle was very loose. Dust free, vacuumed, clean bedding. I guess I learned well with Hotel Impossible, hehe! Once these things are fixed it will be perfect. Not too bad!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>The hotel, on the most part was pretty clean. After checking in, we wanted to go checkout the room. We could hardly get past all the laundry and maid carts that were in the hallway at 5:15pm. Found the room very clean but this room needs some work. After bringing dinner back to the room, I sat at the small table. It was so wobbly, I thought it would collapse. Big spot on the rug. When turning on the air conditioner, it blew the curtains up in the air. Where is the privacy?? When taking a shower, the faucet handle was very loose. Dust free, vacuumed, clean bedding. I guess I learned well with Hotel Impossible, hehe! Once these things are fixed it will be perfect. Not too bad!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r435390344-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -453,12 +720,6 @@
     <t>We needed to be in the Pomona area for a family visit and this Comfort Inn lived up to the usual reputation. We enjoyed our spacious room (Room 300 is square rather than rectangular) and the bed was great!  We enjoyed having 2 freeways to choose from and spent two evenings in the downtown area up the road which offers some funky restaurant &amp; bar choices.Our only complaint would be that the included breakfast was not quite as good as we've had at other Comfort Inns and the breakfast area (both serving and eating areas) was not cleaned up during the meal service.</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>Thomas B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r430956987-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -477,9 +738,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>envy28</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r427410983-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -495,7 +753,37 @@
     <t>This hotel is a few miles from the Pomona Fairplex. Check in was easy , the staff was very friendly and printed us up a map of the area which was mich appreciated. The rooms were clean and the bathroom was large. The shampoo/ conditioners were very small, pretty much one use. The hotel was right on the road, but the noise was minimal. There is an elevator in the hotel, so you don't have to carry your bags up and down stairs. The pillows were a bit lumpy. Overall we were pretty happy with this facility.</t>
   </si>
   <si>
-    <t>Loretta L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r426488043-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>426488043</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Nice Place, Questionable Neighborhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice room, clean and comfy. Quiet for being on a busy street. Neighborhood was a bit on the run down side. Breakfast was barely average as they wouldn't refill juice or waffle batter. Small section of other items. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r421526248-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>421526248</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>One Night after Red Sox/Angel Game</t>
+  </si>
+  <si>
+    <t>Wife and I stayed hear since I had to work in the area after a Red Sox/Angels game.  Checked in late, service was a bit slow but the front desk worker did his best to get everything moving.  Lobby was nice, room was big and clean.  Location near LA fair grounds is good.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r412251862-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -516,9 +804,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>ellrat</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r399790276-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -534,15 +819,9 @@
     <t>Our experience was not at all consistent with the recent good reviews. On arrival (more than an hour after their posted check-in time) we had to wait 20 minutes before our rooms were ready, although the hotel seemed almost deserted. The front desk staff were pleasant enough, but given that it was nearly 100 degrees that day, waiting around with our suitcases made for an unpleasant start to our stay. The rooms themselves were badly run-down -- stains on the walls and curtains, torn upholstery, scratched-up furniture... worst of all, one of our two rooms had a nasty odor. (My husband and I disagreed on whether it was urine or mold...) The housekeeping staff seem to have done their best, but these rooms need way more than vacuuming and dusting. Conditions in the main corridor were even worse -- damaged walls and filthy carpeting.Breakfast was average. The tiny "fitness center" consists of a treadmill, a very basic recumbent bike, and a third-rate weight machine.We tried to talk with hotel staff about the problems we observed. When we checked out, there was no one at the front desk. When we emailed the address on our checkout receipt, the email bounced.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>Our experience was not at all consistent with the recent good reviews. On arrival (more than an hour after their posted check-in time) we had to wait 20 minutes before our rooms were ready, although the hotel seemed almost deserted. The front desk staff were pleasant enough, but given that it was nearly 100 degrees that day, waiting around with our suitcases made for an unpleasant start to our stay. The rooms themselves were badly run-down -- stains on the walls and curtains, torn upholstery, scratched-up furniture... worst of all, one of our two rooms had a nasty odor. (My husband and I disagreed on whether it was urine or mold...) The housekeeping staff seem to have done their best, but these rooms need way more than vacuuming and dusting. Conditions in the main corridor were even worse -- damaged walls and filthy carpeting.Breakfast was average. The tiny "fitness center" consists of a treadmill, a very basic recumbent bike, and a third-rate weight machine.We tried to talk with hotel staff about the problems we observed. When we checked out, there was no one at the front desk. When we emailed the address on our checkout receipt, the email bounced.More</t>
   </si>
   <si>
-    <t>radmarc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r399017767-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -558,7 +837,34 @@
     <t>Very nice for a place with history. Parking lot was well it. Had a god rest. Breakfast was the usual stuff. Some places have trays so you can take a little something for someone who doesn't like to go down. This place had no trays. Not a big deal.</t>
   </si>
   <si>
-    <t>lyks2travel</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r395809465-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>395809465</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Good value for the money</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights and experienced no problems. The surrounding neighborhood is a place I would not walk at night but I felt very safe in the hotel. The included breakfast had a a wide selection of food. The fitness center was small with only a treadmill, a bike and a mchine on which you can do various weightlifting. I missed a pool and real glasses but the room was neat and clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r395257307-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>395257307</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel.</t>
+  </si>
+  <si>
+    <t>We stayed here last August and stayed here again last week.  Our room was huge and the breakfast is good. The area isn't the best but the hotel is very nice.  There was plenty of parking.   We walked a couple of blocks to a Mexican restaurant.  I would stay here again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r385599350-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -576,9 +882,6 @@
     <t>Despite the not so inviting surrounding, the hotel's cleanliness made up for it ! was only there for an overnight stay.  The front desk was friendly.  Parking was not a problem. Bathroom was clean but it being upgraded, the toilet seat was old, with some paint removed.  Other than that, everything else looked new, clean and functional.</t>
   </si>
   <si>
-    <t>VABicycle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r383515126-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -594,9 +897,6 @@
     <t>Stayed here visiting friends at the nearby University of La Verne. Rooms were well kept and the overall facility was well maintained. Breakfast had a very good variety. This facility is in the top quartile of Comfort Inns and competitors. Only two concerns: although the elevator car was clean, dirt had accumulated in all four corners; and although the facility is safe and secure, it is out of the way and in a marginal area of Pomona.</t>
   </si>
   <si>
-    <t>XXXXXVXXXXX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r383173297-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -612,10 +912,43 @@
     <t>The title of the review says it all.  Great and friendly service, very clean facilities, and comfortable rooms are topped off by this looking a bit nicer than your average 2 star hotel.  Definitely a solid place to stay if you are in the area!</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>George N</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r374139349-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>374139349</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Nice place, great staff</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks in May 2016.  Very quick check-in and a nice, clean, good sized room.  Bed was very comfortable and rooms were serviced daily by very friendly staff.  Reception staff were very helpful and knowledgeable about the area (I flew from Australia so the help was appreciated).Local stores was handy and the CVS right next door was great for all the little things I forgot.  Local restaurants are mainly Mexican or Chinese, but we didn't have to walk far to find a nice Irish pub and Vietnamese place. Situated on a regular bus route which services the Pomona transit centre allowing for easy and quick travel to Los Angeles or San Bernadino in the other direction. Overall a great stay and I would recommend Comfort Inn Pomona to anyone and stay there again myself.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks in May 2016.  Very quick check-in and a nice, clean, good sized room.  Bed was very comfortable and rooms were serviced daily by very friendly staff.  Reception staff were very helpful and knowledgeable about the area (I flew from Australia so the help was appreciated).Local stores was handy and the CVS right next door was great for all the little things I forgot.  Local restaurants are mainly Mexican or Chinese, but we didn't have to walk far to find a nice Irish pub and Vietnamese place. Situated on a regular bus route which services the Pomona transit centre allowing for easy and quick travel to Los Angeles or San Bernadino in the other direction. Overall a great stay and I would recommend Comfort Inn Pomona to anyone and stay there again myself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r373506953-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>373506953</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We stood here for a week, the front desk was helpful and courtesy, the rooms were nice and clean, and it was very quiet. The free breakfast was also a great touch with lots to chose from. We would defiantly stay again!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r366162800-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -633,12 +966,6 @@
     <t>I was in town for a show at the Glass House and had a wonderful stay at this very nice and inexpensive hotel. The room was perfect and had a very comfortable bed. I would recommend it to anyone staying in the area.</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
-    <t>David O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r364031620-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -654,9 +981,6 @@
     <t>I spent 3 nights in this hotel and found it to be well kept, quiet and very clean. Valerie at the front desk was extremely helpful and polite. I had one noise issue with someone slamming their door repeatedly and one call to the front desk dealt with the problem. The neighborhood surrounding the hotel is not posh or full of swanky restaurants, but neither is any other hotel in Pomona. I will say that I found 3 excellent Mexican restaurants within 5 minutes of this location.</t>
   </si>
   <si>
-    <t>Cheryl G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r361475918-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -672,7 +996,34 @@
     <t>Was rated excellent. Do not feel that it is what you would consider excellent or good. It is average at the most.  Also, no restaurants in the area around it. We found a sports bar close to the Fairplex and bought food to go and ate it in our room. The best that we could do was the CVS Pharmacy for snacks.  Makes me reconsider booking on line.</t>
   </si>
   <si>
-    <t>Bonnie B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r357007614-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>357007614</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>The Comfort Inn was comfy, the room was large , quiet and clean. I liked the little laundry room also just in case you needed to trow some clothes in during your travels. Everyone was polite helpful and friendly. The complimentary breakfast hit the spot. It really had everything you could want on the run.  There is also a CVS two steps away which is also a plus .I would stay there again. Cooper from Arizona</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r354192198-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>354192198</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>highlight a very welcoming  Valerie at the front desk...</t>
+  </si>
+  <si>
+    <t>Room was good , building looked to have been renovated somewhat recently 'newish' carpet , nice comfortable  king ,bathtub on small side  ..quaint perhaps by virtue of the attractive lobby a renovated winery building ..</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r350071619-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -691,9 +1042,6 @@
   </si>
   <si>
     <t>February 2016</t>
-  </si>
-  <si>
-    <t>ArcFlashMan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r333786097-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -723,9 +1071,6 @@
 The hotel itself was great.  The parking lot was clean and the landscaping manicured.  The lobby was clean and inviting.  The bed was clean and comfortable.  The bathroom was clean and large enough to move around in.  Seeing a ‘clean’ pattern here?  I did too.  No funky smells or stains anywhere.  No hairs that weren’t mine.  The hotel is advertised as being in a historical building but inside...My biggest concerns about staying at this hotel were planted in my mind by other reviewers on here about the neighborhood.  Words like sketchy, rough, seedy, and shabby made me hesitate to make the reservation.  I drove around and walked around alone after dark to find food and did so without any issues.  I had no trouble conducting business in the area and didn’t encounter any harassment or intimidation from the locals.  Folks either smiled at me or didn’t pay attention to me.  On my scale those add up to lean more toward the pleasant end than the sketchy end.   A CVS Pharmacy is right next door and there are plenty of Mom &amp; Pop restaurants within walking distance if you like burritos, tacos, or hamburgers.  I even saw a couple of donut shops that I wish I had tried.  There aren’t any chain restaurants immediately nearby, though.  Perhaps the lack of a Chili’s or Red Lobster makes a neighborhood rough for some travelers but I found it to be a non-issue.  The hotel itself was great.  The parking lot was clean and the landscaping manicured.  The lobby was clean and inviting.  The bed was clean and comfortable.  The bathroom was clean and large enough to move around in.  Seeing a ‘clean’ pattern here?  I did too.  No funky smells or stains anywhere.  No hairs that weren’t mine.  The hotel is advertised as being in a historical building but inside shows no trace of being old.  It’s just a nice Comfort Inn.The down side?  Breakfast was nothing to write home about.  Maybe you could try the donut shops I never made it to and let me know how they are.More</t>
   </si>
   <si>
-    <t>Kip C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r333668585-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -738,7 +1083,37 @@
     <t>Yeah, the location in South Pomona isn't all that great BUTIt's clean, comfortable, quiet, with friendly and professional service. The free breakfast is spot on. And, the price is right. New carpets in the rooms and hallways really helped the overall appearance.</t>
   </si>
   <si>
-    <t>Madelyn L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r331239780-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>331239780</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>This is a really new, really clean hotel in a slightly seedy part of town. I highly recommend it if you need to be in Pomona. I needed to be there for a hearing in the courthouse; it's 3/4 of a mile from there, a nice walk through a not-so-nice neighborhood.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r328412306-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>328412306</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>A very nice place to stay</t>
+  </si>
+  <si>
+    <t>I booked a room here in November to attend the NHRA finals at Auto Club Raceway in Pomona and was very impressed with the hotel.  There is a friendly and helpful staff here and the rooms are spacious and clean.  Breakfast is good but your typical free hotel breakfast.  If you are a light sleeper do get a room on the back side of the hotel as the street noise can be loud at times. Overall I was impressed with the hotel and will stay there again next year.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r325284607-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -756,12 +1131,6 @@
     <t>My husband  and I ride a Harley, We pulled into The Comfort Inn and we were caught in a tremendous rain storm.. We were treated very kindly. Jessica was learning the front desk and  both Ladies were very sweet.. They gave us places we could call in for delivery..  We depended on them as they knew what was best.... We would stay there again...</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
-    <t>Anthony W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r324628910-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -783,9 +1152,6 @@
     <t>Hotel is situated in a "rough" area of Pomona. We stayed here to attend the October, Pomona swap meet, it's ideally situated and very close to Fairplex. We went to some local bars and found it a little intimidating. Being British we walked the 10 minutes to the local bars and discovered some interesting sights along the way. People sleeping rough at the side of the road etc. We found the staff in the hotel overall very friendly and they were very helpful. We didn't have any breakfast at the hotel during our stay, preferred to eat a nice freshly cooked one elsewhere. We did take some fruit in the morning from the breakfast area, fruit was a bit "stale". You get what you pay for I suppose and it did serve a purpose, rooms were OK and that's about it. Would I stay here again? Yes I would if going on a budget, it is a budget hotel.More</t>
   </si>
   <si>
-    <t>Vanessa G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r309686519-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -807,7 +1173,37 @@
     <t>We live in OC and attended the Pomona Fairplex for a concert.  We knew we didn't want to drive home at midnight, so we booked a room in advance.  This Comfort Inn was a pleasant surprise!  The surrounding neighborhood is a bit sketchy, but once you get to the building, you forget that.  The building itself is historic and picturesque.  It looks like it belongs in Santa Barbara or somewhere along the beach.  The staff was friendly and helpful, and the lobby smelled of fresh lemon cleaning products.  The lobby looked like it belonged to an expensive hotel.  The hotel room was spacious and clean.  The bed was comfortable, and I loved that there were so many pillows.  The shower section included shampoo AND conditioner! Score.  That doesn't always happen at places we stay at.  We slept in and didn't eat the included breakfast, but the area looked nice and clean. Overall, we will now make this a tradition to stay here every September when we see a concert at the near by fairplex.More</t>
   </si>
   <si>
-    <t>tkfleming74</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r304237460-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>304237460</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>We had a reservation for 5 nights while we dropped our daughter off at college but upon arriving and seeing the location and the rooms we changed our plans. I would not give this property a high rating. The hotel is in a slightly shabby neighborhood, and the rooms felt small and very basic. The front desk staff was courteous but still charged us the first night's stay because we hadn't cancelled with a 24 hr notice. I have appealed to the Choice Hotel company but they not responded yet to my request for reimbursement.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r292734537-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>292734537</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were having a date night with another couple and chose this hotel for location and price. Customer service was good, easy parking, and free breakfast. Wi-fi was hit and miss in our room. Room had a couple small maintenance issues ( desk had very loose legs, A/C unit had broken cover) but very very clean. Would stay again if in area. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r281709920-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -831,9 +1227,6 @@
     <t>I stayed here at the Comfort Inn for two nights in June.  When driving to the hotel, I wasn't sure that I had made the best choice, because the neighborhood didn't seem to be all that good.  But I was pleasantly surprised at the quality of the hotel and the room.  The room was very nice, clean and spacious.  I liked the fact that it had a small refrigerator in the room.  All of the furnishings were in great shape.  They provided a breakfast in the morning, but I never had the chance to give it a try.  There was no pool…didn't matter to me, but that might be important to some families with children.  I like how close it was to a major highway, which made it easy for me to head in different directions.  I was visiting Pasadena and Chino Hills, and this was ideally located for me.More</t>
   </si>
   <si>
-    <t>cheapoyromantico</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r279168202-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -852,9 +1245,6 @@
     <t>Hard to believe a hotel in SoCal doesn't have a pool.  My own fault for assuming it did!  Pros:  Nicely decorated, large rooms.  Carpet is thick and clean.  Bathroom large, with granite countertop and tub surround.  Elevator.  Decent, mostly carb breakfast included.  (The cooked eggs were these round patties, which tasted pretty non-eggy.) Polite staff . CVS next door.  Night guard for parking lot.  "Fitness Center" is a small room with a multi-use weight machine, treadmill and recumbent bike,  TV &amp; water cooler, and little towels.  Not great, but it did the job for my son and me. Cons:  SLOW WiFi, but at least it's free.   A/C unit is under the window, so if the curtains are closed, the cold air blows them out, keeping the cold air from getting into the room.  If you have a brick or two in your trunk bring it in to hold the curtains down onto the window sill... Would I stay here again?  Probably, but not in the heat of summer.More</t>
   </si>
   <si>
-    <t>tanya d</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r268944747-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -873,7 +1263,37 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>William J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r261842834-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>261842834</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Lovely room at great price</t>
+  </si>
+  <si>
+    <t>The Comfort Inn in Pomona offers big rooms with comfy beds and all the amenities that my partner and I needed. I was very happy to see that parking was free (which from my previous experience is normally very expensive in LA) and there was plenty of spaces available, also a very positive surprise was that the hotel had free wifi!  They offer a simple but good breakfast, included in the price which was nice.I would definitely stay there again at that price!!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r259152238-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>259152238</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Irritating</t>
+  </si>
+  <si>
+    <t>I've stayed at over 50+ of these hotels across the country and this is the only one that doesn't provide fresh coffee for their guests and on top of that, comes back with an attitude when asked for a fresh pot. Their workers were lounging around the guest breakfast area as well just glaring. Nice hotel, just needs a new staff with better attitudes toward their paying customers.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r257079299-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -897,9 +1317,6 @@
     <t>Located in a mostly residential, not great area, not close to any freeways. Hotel presents well from outside, nicely landscaped and inviting. Decent amount of parking. Front desk staff cheerful and efficient. My room was clean and fairly large, however the carpet looks ancient, and both the carpet and furniture are badly stained and have numerous what appear to be cigarette burns - although, ostensibly, the entire hotel is non-smoking. I did get a very good night's sleep in a comfortable bed with lots of great pillows, the shower was hot, good pressure, high shower-head. This hotel would be a great place to stay if attending an event at the (somewhat) nearby Fairplex; as a business traveler, it's lack of immediate access to freeways and distance from Downtown LA is a problem.More</t>
   </si>
   <si>
-    <t>maryybarra68</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r251931892-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -918,9 +1335,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>bennett942</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r251640910-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -936,7 +1350,40 @@
     <t>This is our 10th stay at this hotel over the past 7 years.  We joined Choice Hotels and happened across this hotel.  We come twice a year to the major car shows held at the Fairplex.  The hotel is less than 10 minutes away.  They are in the midst of installing all new carpeting through out the hotel.  Spotless clean bath rooms, tons of towels, fluffy to firm pillows.  The staff whether it be desk, food, house keeping are all so great and helpful.  Might not be four * but you will have a hard time beating this facility.</t>
   </si>
   <si>
-    <t>luvhb4evr</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r244316839-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>244316839</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with good service</t>
+  </si>
+  <si>
+    <t>My partner and I stayed here for a special occasion.  This Comfort Inn is beautiful and modern, as well as extremely clean.  It would not be out of place in an elegant part of any big city.  The breakfast offerings were fresh and tasty, as well.  As a side note:  I am a highly educated professional who lives in Pomona and think it gets an unwarranted bad reputation.  Downtown Pomona is vibrant, bustling, with lots of new restaurants, pubs and cafes (as well as the Fox Theater).  There are lots of cute, charming, friendly neighborhoods here as well.  The only downside of this hotel was that it was incredibly loud where we were on the second floor.  There were very loud people walking up and down the hall using the ice machine all night.  I probably got between two to three good hours of sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>My partner and I stayed here for a special occasion.  This Comfort Inn is beautiful and modern, as well as extremely clean.  It would not be out of place in an elegant part of any big city.  The breakfast offerings were fresh and tasty, as well.  As a side note:  I am a highly educated professional who lives in Pomona and think it gets an unwarranted bad reputation.  Downtown Pomona is vibrant, bustling, with lots of new restaurants, pubs and cafes (as well as the Fox Theater).  There are lots of cute, charming, friendly neighborhoods here as well.  The only downside of this hotel was that it was incredibly loud where we were on the second floor.  There were very loud people walking up and down the hall using the ice machine all night.  I probably got between two to three good hours of sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r243358105-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>243358105</t>
+  </si>
+  <si>
+    <t>12/07/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>We loved staying here. The staff was fantastic and the rooms were very clean. Although the breakfast location isn't very large by some standards, it was clean and well stocked.There are no restaurants directly close to the hotel, but that wasn't a big deal for us.We will come stay again if we come this way again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r238767244-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -960,9 +1407,6 @@
     <t>Was a bit skeptical when booking a hotel in Pomona due to some tough reviews about the city, but upon getting off the freeway an finding the hotel, I was pleasantly surprised.  The hotel had free parking on the side, back and a small garage for about 10 cars or so.   Found parking when we arrived at 9:45pm.   Was able to check in very quickly by a friendly associate.   Our room on the second floor was on the back side of the hotel, so very quiet.  Room looked to have been recently remodeled and very clean and modern.  Bathroom clean.  Beds were comfortable and clean. Had the free breakfast in the morning with choices of coffee, tea, several juices, make your own waffles, sausage and egg patties, assortment of yogurt, cereals, breads.  Would definitely stay again when needing to stay in the area.More</t>
   </si>
   <si>
-    <t>rpgamble7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r230344231-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -981,9 +1425,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>1onMyList</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r229108070-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -999,10 +1440,49 @@
     <t>No complaints as far as the room goes. Bed was comfortable and bathroom clean with plenty of supplies.  Price was reasonable. We had plenty of space and fairly clean. Food was Ok with a good selection. Neighborhood not great but wasn't there for to long.</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
-    <t>sekharbvp</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r228909642-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>228909642</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>OK if you're at the Fairplex</t>
+  </si>
+  <si>
+    <t>We stayed at this property after going to the LA county Fair, thinking it was a couple of miles away, per Google maps. It was a 15 minute drive on surface streets in an area that seemed dicey at night. During the day, we saw that it was in an older, business section of Pomona. Not horrible, but not great.We had a late check in and found limited parking at the hotel, but found something in the structure at the last minute. The room was nice, typical for a Comfort Inn, and quiet. The next morning, we went to the free breakfast and found nowhere to sit int he breakfast area, which is really small and limited. the breakfast items seemed like non-perishables that could be kept for a long time. There was fresh fruit but only a few apples and over ripe bananas. Nothing was a brand we recognized- mostly hotel/institutional items. Staff was pleasant and there were no problems, however, we probably will jot stay there for future trips to the area because it wasn't as close to the Fairplex as we thought.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this property after going to the LA county Fair, thinking it was a couple of miles away, per Google maps. It was a 15 minute drive on surface streets in an area that seemed dicey at night. During the day, we saw that it was in an older, business section of Pomona. Not horrible, but not great.We had a late check in and found limited parking at the hotel, but found something in the structure at the last minute. The room was nice, typical for a Comfort Inn, and quiet. The next morning, we went to the free breakfast and found nowhere to sit int he breakfast area, which is really small and limited. the breakfast items seemed like non-perishables that could be kept for a long time. There was fresh fruit but only a few apples and over ripe bananas. Nothing was a brand we recognized- mostly hotel/institutional items. Staff was pleasant and there were no problems, however, we probably will jot stay there for future trips to the area because it wasn't as close to the Fairplex as we thought.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r224623913-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>224623913</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Depends on the Room</t>
+  </si>
+  <si>
+    <t>We stayed here two nights in this hotel while visiting our son in the area.  The first night was awful. The room was dirty and worn.  The carpet was stiff. Breakfast the next morning was OK. You don't want to be at all late though. They chained off the area just before the 9 am hour when they were done and started taking the food away even though several people were still eating. I suppose I understand the employees are on a time schedule but it seemed rather rude to me. Our second night was much better we changed rooms to one that seemed much more clean. The hotel sign was in front of our window so there was no looking out but the room was a vast improvement over the previous night. Breakfast was good as we got there long before they were closing up. It wouldn't be my first choice of hotel in the area but I have stayed in worse.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Jenny J, Manager at Comfort Inn Near FairPlex, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here two nights in this hotel while visiting our son in the area.  The first night was awful. The room was dirty and worn.  The carpet was stiff. Breakfast the next morning was OK. You don't want to be at all late though. They chained off the area just before the 9 am hour when they were done and started taking the food away even though several people were still eating. I suppose I understand the employees are on a time schedule but it seemed rather rude to me. Our second night was much better we changed rooms to one that seemed much more clean. The hotel sign was in front of our window so there was no looking out but the room was a vast improvement over the previous night. Breakfast was good as we got there long before they were closing up. It wouldn't be my first choice of hotel in the area but I have stayed in worse.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r223066808-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -1023,16 +1503,7 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Jenny J, Manager at Comfort Inn Near FairPlex, responded to this reviewResponded September 3, 2014</t>
-  </si>
-  <si>
-    <t>Responded September 3, 2014</t>
-  </si>
-  <si>
     <t>Definitely would prefer staying again here. I was on a trip from Bay area to LA and wanted to stay close by to Chino hills area. Pros- Good rooms- Underground parking- Good breakfast- Good beds and restroom- AmbienceCons- No Oven- Ice machine on 2nd floor- AC took timeMore</t>
-  </si>
-  <si>
-    <t>JulieJutland</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r216690665-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -1052,17 +1523,11 @@
 I would have given this hotel 5 stars except our friends' room wasn't available until 5pm (we got there at 3pm) and we found out it was because of a lack of blankets. My friends literally had to wait for the blankets in that room...We stayed here the other night and I had the best night sleep I have had in a LONG TIME. The beds are so comfortable and the walls are perfectly insulated to where you can't hear your neighbors. According to other reviews it was suggested asking for a room facing the back parking lot to avoid street noise. We did just that and we received the last room on the first floor (#111) right next to the door to the parking garage. Other than hearing the door to the garage shutting a few times during the day, our room was amazingly quiet! Our friends had a room close to the lobby and on the street side but they didn't seem to have any complaints. I was in there for a while and heard a couple trucks pass but other than that it seemed fine. One thing I want to point out is the woman at the front desk who checked us in was incredibly sweet and went above and beyond to help my friends and I get our rooms and get situated. She was so nice and helpful it made our stay so much better. I would have given this hotel 5 stars except our friends' room wasn't available until 5pm (we got there at 3pm) and we found out it was because of a lack of blankets. My friends literally had to wait for the blankets in that room to be washed and dried before they could get their room! That is CRAZY. The owner really needs to consider investing in a few more blankets because that is just ridiculous. That said, the wonderful housekeeping staff was always seen working diligently at cleaning every room. They were so pleasant every time we would see them in the hall. They are truly the most pleasant staff here!! We made sure to tip them well. (They deserve it!)The food area was very decent and had everything we needed to grab a bite to eat and start our day. Bonus points to the staff for keeping it clean and stocked with fresh food! There is a CVS right next door (and not "too close" if that makes any sense) for anything you might want to pick up that you forgot to pack. It has a Chase ATM inside too. So nice! For awesome Mexican food close by, we grabbed a bite at Mexico Lindo (1060 S Garey Ave) just down the street and every one of us thought it was delicious! (My favs were the crispy tacos and their salsa - SO GOOD!!)This was my first trip to Pomona and I will definitely be coming back! The town is super cute around 2nd street with lots of antique stores, records stores and amazing food. We will for sure be staying at the Comfort Inn when we come back!!MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>We stayed here the other night and I had the best night sleep I have had in a LONG TIME. The beds are so comfortable and the walls are perfectly insulated to where you can't hear your neighbors. According to other reviews it was suggested asking for a room facing the back parking lot to avoid street noise. We did just that and we received the last room on the first floor (#111) right next to the door to the parking garage. Other than hearing the door to the garage shutting a few times during the day, our room was amazingly quiet! Our friends had a room close to the lobby and on the street side but they didn't seem to have any complaints. I was in there for a while and heard a couple trucks pass but other than that it seemed fine. 
 One thing I want to point out is the woman at the front desk who checked us in was incredibly sweet and went above and beyond to help my friends and I get our rooms and get situated. She was so nice and helpful it made our stay so much better. 
 I would have given this hotel 5 stars except our friends' room wasn't available until 5pm (we got there at 3pm) and we found out it was because of a lack of blankets. My friends literally had to wait for the blankets in that room...We stayed here the other night and I had the best night sleep I have had in a LONG TIME. The beds are so comfortable and the walls are perfectly insulated to where you can't hear your neighbors. According to other reviews it was suggested asking for a room facing the back parking lot to avoid street noise. We did just that and we received the last room on the first floor (#111) right next to the door to the parking garage. Other than hearing the door to the garage shutting a few times during the day, our room was amazingly quiet! Our friends had a room close to the lobby and on the street side but they didn't seem to have any complaints. I was in there for a while and heard a couple trucks pass but other than that it seemed fine. One thing I want to point out is the woman at the front desk who checked us in was incredibly sweet and went above and beyond to help my friends and I get our rooms and get situated. She was so nice and helpful it made our stay so much better. I would have given this hotel 5 stars except our friends' room wasn't available until 5pm (we got there at 3pm) and we found out it was because of a lack of blankets. My friends literally had to wait for the blankets in that room to be washed and dried before they could get their room! That is CRAZY. The owner really needs to consider investing in a few more blankets because that is just ridiculous. That said, the wonderful housekeeping staff was always seen working diligently at cleaning every room. They were so pleasant every time we would see them in the hall. They are truly the most pleasant staff here!! We made sure to tip them well. (They deserve it!)The food area was very decent and had everything we needed to grab a bite to eat and start our day. Bonus points to the staff for keeping it clean and stocked with fresh food! There is a CVS right next door (and not "too close" if that makes any sense) for anything you might want to pick up that you forgot to pack. It has a Chase ATM inside too. So nice! For awesome Mexican food close by, we grabbed a bite at Mexico Lindo (1060 S Garey Ave) just down the street and every one of us thought it was delicious! (My favs were the crispy tacos and their salsa - SO GOOD!!)This was my first trip to Pomona and I will definitely be coming back! The town is super cute around 2nd street with lots of antique stores, records stores and amazing food. We will for sure be staying at the Comfort Inn when we come back!!More</t>
   </si>
   <si>
-    <t>Sharbear227</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r215815517-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -1078,7 +1543,34 @@
     <t xml:space="preserve">I was surprised by this hidden gem! Friendly staff! They let me check in early when I called and asked. I was very happy about this. Room was so clean and fresh! Safe location and easy parking. Clean and welcoming lobby. Elevators right there to 3rd floor. Would def stay again! </t>
   </si>
   <si>
-    <t>Donna A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r213562982-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>213562982</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>this hotel is not bad at all</t>
+  </si>
+  <si>
+    <t>I read many negative reviews about this hotel but I still decided to try one night because of the attractive price. Now I am very happy with my decision. The hotel is old but well maintained. Room is very clean, breakfast is very good. The clerk is super nice. When I came into the breakfast area, I found there was no sausage. I ask the breakfast clerk where is sausage and then noticed that I got up late and almost missed the breakfast schedule. To my surprise, the clerk went back to kitchen and cooked some sausage for me only. I  really appreciate such good service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r211554404-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>211554404</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Oustanding Service</t>
+  </si>
+  <si>
+    <t>We had the opportunity to stay at the Comfort Inn, Pomona, California.  We arrived later in the afternoon, and were greeted by the greatest receptionist,  she was happy and smiling and had us checked in, in the shortest time. The hotel is centrally located, close proximity to shops and restaurants.  This is a great hotel and will definitely stay there again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r205436276-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -1099,9 +1591,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>bambatbambat</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r202713788-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -1120,9 +1609,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>Liz S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r190751225-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -1144,7 +1630,37 @@
     <t>I have stayed at this Comfort Inn at least a dozen times over the past several years. The quality has been declining recently, and this last visit was likely the final straw for me. The wifi connection in my room was so pathetic I couldn't use the internet in my room at all, there was a weird bright pink stain on the carpet, the large window facing the parking lot (in a ground floor room) was not only unlocked but wide open when I checked in, and the deadbolt lock on the room door took such an effort to turn that at first I thought it was broken. I will be looking into other hotels for my next stay in Pomona.More</t>
   </si>
   <si>
-    <t>Nicole M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r184872998-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>184872998</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok for a night! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room is large. Breakfast and wifi incl. bathroom and sheets were clean.. Carpet and upholstery need a shampoo. Walls are paper thin .. Could hear neighbours on both sides conversations every time a smoker goes outside to smoke the door self closes and makes a loud bang. Staff are friendly and we were advised not to walk around at night.. It's easy and ok for a night! </t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r184641226-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>184641226</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Beware</t>
+  </si>
+  <si>
+    <t>I had a reservation to stay on Frinday Nov. 8. Due to a flight delay, I got there at 1030pm and was nonchalantly told that my room had been given away because I was late. I had an early interview and pressed them, then she said due to a computer error there was actually a room. Exhausted I walked up to my room and walked in and some other guy had already checked in with beer cans and suitcases there. Thank Gosh he wasn't there as I assume he would be very upset to have someone walk in at 11pm. I went down and got another room. Beware!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r184607714-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
@@ -1153,18 +1669,12 @@
     <t>184607714</t>
   </si>
   <si>
-    <t>11/13/2013</t>
-  </si>
-  <si>
     <t>Very modern</t>
   </si>
   <si>
     <t>This is one of the nicest Comfort Inns I have seen. The rooms and hotel itself were beautiful, updated, and modern. The breakfast area was very small, but the breakfast was good. The cleanliness of the rooms was great and staff was very friendly. Right next to a CVS so that was helpful in picking up essentials. Would stay here again anytime!</t>
   </si>
   <si>
-    <t>Cheryl C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r184122184-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -1180,15 +1690,9 @@
     <t>We checked in at 11 p.m. due to our flights, ready to sleep, but we get to the room to discover bugs in the bathtub and around the toilet.  Went down to complain and received another room.  We personally moved all of our stuff and get to the other room to discover that the battery in the smoke detector is not working and beeping every two minutes.  Go to reception again... wait 10 minutes... get a new room  next to the room that is beeping.. don't complain anymore cause it is 1 p.m. and we need to sleep.  Assured by the staff that we will be compensated.... guess what... 1 week later and still nothing......do not ever stay here.... terrible....MoreShow less</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>We checked in at 11 p.m. due to our flights, ready to sleep, but we get to the room to discover bugs in the bathtub and around the toilet.  Went down to complain and received another room.  We personally moved all of our stuff and get to the other room to discover that the battery in the smoke detector is not working and beeping every two minutes.  Go to reception again... wait 10 minutes... get a new room  next to the room that is beeping.. don't complain anymore cause it is 1 p.m. and we need to sleep.  Assured by the staff that we will be compensated.... guess what... 1 week later and still nothing......do not ever stay here.... terrible....More</t>
   </si>
   <si>
-    <t>HusnaO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r183217688-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
   </si>
   <si>
@@ -1205,6 +1709,36 @@
   </si>
   <si>
     <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r181960345-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>181960345</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>Huge rooms, updated and comfy bed</t>
+  </si>
+  <si>
+    <t>The hotel was part of a renovated old stone building so it has charm. The hotel has interior hallways and an elevator.   Our room 219 was very large, bath had granite shower surround and counter. I slept well on the bed, watching the flat screen TV.   The breakfast was better then most of these cheaper hotels.  We had stayed because of an event at the Fairplex, about a 10 min drive away.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d1158582-r181685047-Comfort_Inn_Near_FairPlex-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>181685047</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>Comfortable, clean, quiet, spacious, and friendly.  I was expecting barebones but got much more.  It is not super luxurious or a place for a honeymoon but I would stay there again in a heartbeat.  Even the breakfast was tasty and had plenty of options.</t>
   </si>
 </sst>
 </file>
@@ -1709,236 +2243,224 @@
       <c r="A2" t="n">
         <v>57208</v>
       </c>
-      <c r="B2" t="n">
-        <v>64143</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57208</v>
       </c>
-      <c r="B3" t="n">
-        <v>162072</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57208</v>
       </c>
-      <c r="B4" t="n">
-        <v>162073</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57208</v>
       </c>
-      <c r="B5" t="n">
-        <v>92464</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1952,54 +2474,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57208</v>
       </c>
-      <c r="B6" t="n">
-        <v>162074</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2013,54 +2531,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57208</v>
       </c>
-      <c r="B7" t="n">
-        <v>162075</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2074,383 +2588,361 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57208</v>
       </c>
-      <c r="B8" t="n">
-        <v>162076</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57208</v>
       </c>
-      <c r="B9" t="n">
-        <v>162077</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57208</v>
       </c>
-      <c r="B10" t="n">
-        <v>63456</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
-      </c>
-      <c r="P10" t="n">
+        <v>68</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>113</v>
-      </c>
-      <c r="X10" t="s">
-        <v>114</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57208</v>
       </c>
-      <c r="B11" t="n">
-        <v>9665</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>113</v>
-      </c>
-      <c r="X11" t="s">
-        <v>114</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57208</v>
       </c>
-      <c r="B12" t="n">
-        <v>162078</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>113</v>
-      </c>
-      <c r="X12" t="s">
-        <v>114</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57208</v>
       </c>
-      <c r="B13" t="n">
-        <v>162079</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2461,140 +2953,122 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>113</v>
-      </c>
-      <c r="X13" t="s">
-        <v>114</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57208</v>
       </c>
-      <c r="B14" t="n">
-        <v>18307</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57208</v>
       </c>
-      <c r="B15" t="n">
-        <v>2253</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2602,119 +3076,107 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57208</v>
       </c>
-      <c r="B16" t="n">
-        <v>162080</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57208</v>
       </c>
-      <c r="B17" t="n">
-        <v>162081</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2728,261 +3190,235 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57208</v>
       </c>
-      <c r="B18" t="n">
-        <v>162082</v>
-      </c>
-      <c r="C18" t="s">
-        <v>166</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57208</v>
       </c>
-      <c r="B19" t="n">
-        <v>162083</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
         <v>152</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57208</v>
       </c>
-      <c r="B20" t="n">
-        <v>162084</v>
-      </c>
-      <c r="C20" t="s">
-        <v>180</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s">
-        <v>112</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57208</v>
       </c>
-      <c r="B21" t="n">
-        <v>162085</v>
-      </c>
-      <c r="C21" t="s">
-        <v>186</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2990,329 +3426,301 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57208</v>
       </c>
-      <c r="B22" t="n">
-        <v>162086</v>
-      </c>
-      <c r="C22" t="s">
-        <v>192</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="O22" t="s">
-        <v>198</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57208</v>
       </c>
-      <c r="B23" t="n">
-        <v>44531</v>
-      </c>
-      <c r="C23" t="s">
-        <v>199</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="O23" t="s">
-        <v>198</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57208</v>
       </c>
-      <c r="B24" t="n">
-        <v>51999</v>
-      </c>
-      <c r="C24" t="s">
-        <v>206</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>181</v>
+      </c>
+      <c r="X24" t="s">
+        <v>182</v>
+      </c>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57208</v>
       </c>
-      <c r="B25" t="n">
-        <v>14550</v>
-      </c>
-      <c r="C25" t="s">
-        <v>212</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="O25" t="s">
-        <v>112</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>181</v>
+      </c>
+      <c r="X25" t="s">
+        <v>182</v>
+      </c>
       <c r="Y25" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57208</v>
       </c>
-      <c r="B26" t="n">
-        <v>17828</v>
-      </c>
-      <c r="C26" t="s">
-        <v>218</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s">
-        <v>112</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3320,322 +3728,312 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>181</v>
+      </c>
+      <c r="X26" t="s">
+        <v>182</v>
+      </c>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57208</v>
       </c>
-      <c r="B27" t="n">
-        <v>162087</v>
-      </c>
-      <c r="C27" t="s">
-        <v>225</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>181</v>
+      </c>
+      <c r="X27" t="s">
+        <v>182</v>
+      </c>
       <c r="Y27" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57208</v>
       </c>
-      <c r="B28" t="n">
-        <v>162088</v>
-      </c>
-      <c r="C28" t="s">
-        <v>233</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="O28" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X28" t="s">
+        <v>182</v>
+      </c>
       <c r="Y28" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57208</v>
       </c>
-      <c r="B29" t="n">
-        <v>162089</v>
-      </c>
-      <c r="C29" t="s">
-        <v>238</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>181</v>
+      </c>
+      <c r="X29" t="s">
+        <v>182</v>
+      </c>
       <c r="Y29" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57208</v>
       </c>
-      <c r="B30" t="n">
-        <v>31681</v>
-      </c>
-      <c r="C30" t="s">
-        <v>245</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="J30" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>181</v>
+      </c>
+      <c r="X30" t="s">
+        <v>182</v>
+      </c>
       <c r="Y30" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57208</v>
       </c>
-      <c r="B31" t="n">
-        <v>69027</v>
-      </c>
-      <c r="C31" t="s">
-        <v>253</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -3650,62 +4048,58 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57208</v>
       </c>
-      <c r="B32" t="n">
-        <v>162090</v>
-      </c>
-      <c r="C32" t="s">
-        <v>261</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3717,252 +4111,238 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57208</v>
       </c>
-      <c r="B33" t="n">
-        <v>162091</v>
-      </c>
-      <c r="C33" t="s">
-        <v>269</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="J33" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="K33" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="L33" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57208</v>
       </c>
-      <c r="B34" t="n">
-        <v>162092</v>
-      </c>
-      <c r="C34" t="s">
-        <v>276</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57208</v>
       </c>
-      <c r="B35" t="n">
-        <v>466</v>
-      </c>
-      <c r="C35" t="s">
-        <v>283</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="L35" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57208</v>
       </c>
-      <c r="B36" t="n">
-        <v>162093</v>
-      </c>
-      <c r="C36" t="s">
-        <v>291</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="J36" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="K36" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="L36" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -3973,129 +4353,119 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57208</v>
       </c>
-      <c r="B37" t="n">
-        <v>162094</v>
-      </c>
-      <c r="C37" t="s">
-        <v>298</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="O37" t="s">
-        <v>112</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57208</v>
       </c>
-      <c r="B38" t="n">
-        <v>97946</v>
-      </c>
-      <c r="C38" t="s">
-        <v>304</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="J38" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="K38" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="L38" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4103,66 +4473,62 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57208</v>
       </c>
-      <c r="B39" t="n">
-        <v>162095</v>
-      </c>
-      <c r="C39" t="s">
-        <v>312</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4170,128 +4536,110 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57208</v>
       </c>
-      <c r="B40" t="n">
-        <v>162096</v>
-      </c>
-      <c r="C40" t="s">
-        <v>319</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="K40" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="s">
-        <v>325</v>
-      </c>
-      <c r="O40" t="s">
-        <v>112</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3</v>
-      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57208</v>
       </c>
-      <c r="B41" t="n">
-        <v>162097</v>
-      </c>
-      <c r="C41" t="s">
-        <v>326</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>332</v>
+        <v>255</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
         <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
@@ -4301,140 +4649,122 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>333</v>
-      </c>
-      <c r="X41" t="s">
-        <v>334</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57208</v>
       </c>
-      <c r="B42" t="n">
-        <v>162098</v>
-      </c>
-      <c r="C42" t="s">
-        <v>336</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="J42" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="L42" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>342</v>
+        <v>239</v>
       </c>
       <c r="O42" t="s">
-        <v>69</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57208</v>
       </c>
-      <c r="B43" t="n">
-        <v>162099</v>
-      </c>
-      <c r="C43" t="s">
-        <v>344</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="J43" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="K43" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="L43" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+      <c r="N43" t="s">
+        <v>239</v>
+      </c>
+      <c r="O43" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4442,70 +4772,62 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57208</v>
       </c>
-      <c r="B44" t="n">
-        <v>28583</v>
-      </c>
-      <c r="C44" t="s">
-        <v>350</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="J44" t="s">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c r="K44" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="L44" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>356</v>
+        <v>239</v>
       </c>
       <c r="O44" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4513,186 +4835,168 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57208</v>
       </c>
-      <c r="B45" t="n">
-        <v>162100</v>
-      </c>
-      <c r="C45" t="s">
-        <v>357</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="J45" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K45" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="L45" t="s">
-        <v>362</v>
+        <v>302</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="O45" t="s">
-        <v>69</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57208</v>
       </c>
-      <c r="B46" t="n">
-        <v>12263</v>
-      </c>
-      <c r="C46" t="s">
-        <v>364</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="J46" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="K46" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="L46" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="O46" t="s">
-        <v>54</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57208</v>
       </c>
-      <c r="B47" t="n">
-        <v>11552</v>
-      </c>
-      <c r="C47" t="s">
-        <v>372</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="J47" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="K47" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="L47" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4700,12 +5004,8 @@
       <c r="Q47" t="n">
         <v>5</v>
       </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -4716,70 +5016,62 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57208</v>
       </c>
-      <c r="B48" t="n">
-        <v>16821</v>
-      </c>
-      <c r="C48" t="s">
-        <v>378</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>380</v>
+        <v>317</v>
       </c>
       <c r="J48" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="K48" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>384</v>
+        <v>310</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4787,70 +5079,62 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57208</v>
       </c>
-      <c r="B49" t="n">
-        <v>162101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>386</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="J49" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="K49" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="L49" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>392</v>
+        <v>310</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
         <v>3</v>
       </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4858,7 +5142,2621 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J50" t="s">
+        <v>328</v>
+      </c>
+      <c r="K50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" t="s">
+        <v>329</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>331</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>332</v>
+      </c>
+      <c r="J51" t="s">
+        <v>333</v>
+      </c>
+      <c r="K51" t="s">
+        <v>334</v>
+      </c>
+      <c r="L51" t="s">
+        <v>335</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>330</v>
+      </c>
+      <c r="O51" t="s">
+        <v>84</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>336</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>337</v>
+      </c>
+      <c r="J52" t="s">
+        <v>338</v>
+      </c>
+      <c r="K52" t="s">
+        <v>339</v>
+      </c>
+      <c r="L52" t="s">
+        <v>340</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>341</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>342</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>343</v>
+      </c>
+      <c r="J53" t="s">
+        <v>344</v>
+      </c>
+      <c r="K53" t="s">
+        <v>345</v>
+      </c>
+      <c r="L53" t="s">
+        <v>346</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>347</v>
+      </c>
+      <c r="O53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>349</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>350</v>
+      </c>
+      <c r="J54" t="s">
+        <v>344</v>
+      </c>
+      <c r="K54" t="s">
+        <v>351</v>
+      </c>
+      <c r="L54" t="s">
+        <v>352</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>347</v>
+      </c>
+      <c r="O54" t="s">
+        <v>68</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>353</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>354</v>
+      </c>
+      <c r="J55" t="s">
+        <v>355</v>
+      </c>
+      <c r="K55" t="s">
+        <v>356</v>
+      </c>
+      <c r="L55" t="s">
+        <v>357</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>347</v>
+      </c>
+      <c r="O55" t="s">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>358</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>359</v>
+      </c>
+      <c r="J56" t="s">
+        <v>360</v>
+      </c>
+      <c r="K56" t="s">
+        <v>361</v>
+      </c>
+      <c r="L56" t="s">
+        <v>362</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>363</v>
+      </c>
+      <c r="O56" t="s">
+        <v>68</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>364</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>365</v>
+      </c>
+      <c r="J57" t="s">
+        <v>366</v>
+      </c>
+      <c r="K57" t="s">
+        <v>367</v>
+      </c>
+      <c r="L57" t="s">
+        <v>368</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>363</v>
+      </c>
+      <c r="O57" t="s">
+        <v>79</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>369</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>370</v>
+      </c>
+      <c r="J58" t="s">
+        <v>371</v>
+      </c>
+      <c r="K58" t="s">
+        <v>372</v>
+      </c>
+      <c r="L58" t="s">
+        <v>373</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>374</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>376</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>377</v>
+      </c>
+      <c r="J59" t="s">
+        <v>378</v>
+      </c>
+      <c r="K59" t="s">
+        <v>379</v>
+      </c>
+      <c r="L59" t="s">
+        <v>380</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>381</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>383</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>384</v>
+      </c>
+      <c r="J60" t="s">
+        <v>385</v>
+      </c>
+      <c r="K60" t="s">
+        <v>265</v>
+      </c>
+      <c r="L60" t="s">
+        <v>386</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>387</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>388</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>389</v>
+      </c>
+      <c r="J61" t="s">
+        <v>390</v>
+      </c>
+      <c r="K61" t="s">
         <v>391</v>
+      </c>
+      <c r="L61" t="s">
+        <v>392</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>393</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>394</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>395</v>
+      </c>
+      <c r="J62" t="s">
+        <v>396</v>
+      </c>
+      <c r="K62" t="s">
+        <v>397</v>
+      </c>
+      <c r="L62" t="s">
+        <v>398</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>399</v>
+      </c>
+      <c r="O62" t="s">
+        <v>79</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>402</v>
+      </c>
+      <c r="J63" t="s">
+        <v>403</v>
+      </c>
+      <c r="K63" t="s">
+        <v>404</v>
+      </c>
+      <c r="L63" t="s">
+        <v>405</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>399</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>407</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>408</v>
+      </c>
+      <c r="J64" t="s">
+        <v>409</v>
+      </c>
+      <c r="K64" t="s">
+        <v>410</v>
+      </c>
+      <c r="L64" t="s">
+        <v>411</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>412</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>413</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>414</v>
+      </c>
+      <c r="J65" t="s">
+        <v>415</v>
+      </c>
+      <c r="K65" t="s">
+        <v>416</v>
+      </c>
+      <c r="L65" t="s">
+        <v>417</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>418</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>419</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>420</v>
+      </c>
+      <c r="J66" t="s">
+        <v>421</v>
+      </c>
+      <c r="K66" t="s">
+        <v>422</v>
+      </c>
+      <c r="L66" t="s">
+        <v>423</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>424</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>425</v>
+      </c>
+      <c r="J67" t="s">
+        <v>426</v>
+      </c>
+      <c r="K67" t="s">
+        <v>427</v>
+      </c>
+      <c r="L67" t="s">
+        <v>428</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>429</v>
+      </c>
+      <c r="O67" t="s">
+        <v>79</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>431</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>432</v>
+      </c>
+      <c r="J68" t="s">
+        <v>433</v>
+      </c>
+      <c r="K68" t="s">
+        <v>434</v>
+      </c>
+      <c r="L68" t="s">
+        <v>435</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>436</v>
+      </c>
+      <c r="O68" t="s">
+        <v>84</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>437</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>438</v>
+      </c>
+      <c r="J69" t="s">
+        <v>439</v>
+      </c>
+      <c r="K69" t="s">
+        <v>440</v>
+      </c>
+      <c r="L69" t="s">
+        <v>441</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>436</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>442</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>443</v>
+      </c>
+      <c r="J70" t="s">
+        <v>444</v>
+      </c>
+      <c r="K70" t="s">
+        <v>445</v>
+      </c>
+      <c r="L70" t="s">
+        <v>446</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>447</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>449</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>450</v>
+      </c>
+      <c r="J71" t="s">
+        <v>451</v>
+      </c>
+      <c r="K71" t="s">
+        <v>452</v>
+      </c>
+      <c r="L71" t="s">
+        <v>453</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>447</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>454</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>455</v>
+      </c>
+      <c r="J72" t="s">
+        <v>456</v>
+      </c>
+      <c r="K72" t="s">
+        <v>457</v>
+      </c>
+      <c r="L72" t="s">
+        <v>458</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>459</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>461</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>462</v>
+      </c>
+      <c r="J73" t="s">
+        <v>463</v>
+      </c>
+      <c r="K73" t="s">
+        <v>464</v>
+      </c>
+      <c r="L73" t="s">
+        <v>465</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>466</v>
+      </c>
+      <c r="O73" t="s">
+        <v>84</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>467</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>468</v>
+      </c>
+      <c r="J74" t="s">
+        <v>469</v>
+      </c>
+      <c r="K74" t="s">
+        <v>470</v>
+      </c>
+      <c r="L74" t="s">
+        <v>471</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>418</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>472</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>473</v>
+      </c>
+      <c r="J75" t="s">
+        <v>474</v>
+      </c>
+      <c r="K75" t="s">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s">
+        <v>476</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>466</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>478</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>479</v>
+      </c>
+      <c r="J76" t="s">
+        <v>480</v>
+      </c>
+      <c r="K76" t="s">
+        <v>481</v>
+      </c>
+      <c r="L76" t="s">
+        <v>482</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>483</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>484</v>
+      </c>
+      <c r="X76" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>487</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>488</v>
+      </c>
+      <c r="J77" t="s">
+        <v>489</v>
+      </c>
+      <c r="K77" t="s">
+        <v>490</v>
+      </c>
+      <c r="L77" t="s">
+        <v>491</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>492</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>484</v>
+      </c>
+      <c r="X77" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>494</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>495</v>
+      </c>
+      <c r="J78" t="s">
+        <v>496</v>
+      </c>
+      <c r="K78" t="s">
+        <v>497</v>
+      </c>
+      <c r="L78" t="s">
+        <v>498</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>483</v>
+      </c>
+      <c r="O78" t="s">
+        <v>84</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>500</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>501</v>
+      </c>
+      <c r="J79" t="s">
+        <v>502</v>
+      </c>
+      <c r="K79" t="s">
+        <v>503</v>
+      </c>
+      <c r="L79" t="s">
+        <v>504</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>505</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>506</v>
+      </c>
+      <c r="J80" t="s">
+        <v>507</v>
+      </c>
+      <c r="K80" t="s">
+        <v>508</v>
+      </c>
+      <c r="L80" t="s">
+        <v>509</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>483</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>510</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>511</v>
+      </c>
+      <c r="J81" t="s">
+        <v>512</v>
+      </c>
+      <c r="K81" t="s">
+        <v>513</v>
+      </c>
+      <c r="L81" t="s">
+        <v>514</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>418</v>
+      </c>
+      <c r="O81" t="s">
+        <v>79</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>515</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>516</v>
+      </c>
+      <c r="J82" t="s">
+        <v>517</v>
+      </c>
+      <c r="K82" t="s">
+        <v>518</v>
+      </c>
+      <c r="L82" t="s">
+        <v>519</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>520</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>521</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>522</v>
+      </c>
+      <c r="J83" t="s">
+        <v>523</v>
+      </c>
+      <c r="K83" t="s">
+        <v>524</v>
+      </c>
+      <c r="L83" t="s">
+        <v>525</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>526</v>
+      </c>
+      <c r="O83" t="s">
+        <v>84</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>527</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>528</v>
+      </c>
+      <c r="J84" t="s">
+        <v>529</v>
+      </c>
+      <c r="K84" t="s">
+        <v>530</v>
+      </c>
+      <c r="L84" t="s">
+        <v>531</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>532</v>
+      </c>
+      <c r="O84" t="s">
+        <v>79</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>534</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>535</v>
+      </c>
+      <c r="J85" t="s">
+        <v>536</v>
+      </c>
+      <c r="K85" t="s">
+        <v>537</v>
+      </c>
+      <c r="L85" t="s">
+        <v>538</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>539</v>
+      </c>
+      <c r="O85" t="s">
+        <v>84</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>540</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>541</v>
+      </c>
+      <c r="J86" t="s">
+        <v>542</v>
+      </c>
+      <c r="K86" t="s">
+        <v>543</v>
+      </c>
+      <c r="L86" t="s">
+        <v>544</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>539</v>
+      </c>
+      <c r="O86" t="s">
+        <v>79</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>545</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>546</v>
+      </c>
+      <c r="J87" t="s">
+        <v>542</v>
+      </c>
+      <c r="K87" t="s">
+        <v>547</v>
+      </c>
+      <c r="L87" t="s">
+        <v>548</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>520</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>549</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>550</v>
+      </c>
+      <c r="J88" t="s">
+        <v>551</v>
+      </c>
+      <c r="K88" t="s">
+        <v>552</v>
+      </c>
+      <c r="L88" t="s">
+        <v>553</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>539</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>555</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>556</v>
+      </c>
+      <c r="J89" t="s">
+        <v>557</v>
+      </c>
+      <c r="K89" t="s">
+        <v>558</v>
+      </c>
+      <c r="L89" t="s">
+        <v>559</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>560</v>
+      </c>
+      <c r="O89" t="s">
+        <v>79</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>561</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>562</v>
+      </c>
+      <c r="J90" t="s">
+        <v>563</v>
+      </c>
+      <c r="K90" t="s">
+        <v>564</v>
+      </c>
+      <c r="L90" t="s">
+        <v>565</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>520</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>57208</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>566</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>567</v>
+      </c>
+      <c r="J91" t="s">
+        <v>568</v>
+      </c>
+      <c r="K91" t="s">
+        <v>569</v>
+      </c>
+      <c r="L91" t="s">
+        <v>570</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>520</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
